--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_10_13.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_10_13.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>92651.36809238995</v>
+        <v>116723.8069922318</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>11383374.02173044</v>
+        <v>10874514.47336547</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>21861427.8517956</v>
+        <v>21782672.77456187</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4085258.991661639</v>
+        <v>4145719.336616864</v>
       </c>
     </row>
     <row r="11">
@@ -4031,16 +4033,16 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>81.61928733384123</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>92.6649492891022</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>92.6649492891022</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>92.6649492891022</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -4059,7 +4061,7 @@
         <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>92.6649492891022</v>
       </c>
       <c r="E45" t="n">
         <v>0</v>
@@ -4068,7 +4070,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>92.6649492891022</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -4110,13 +4112,13 @@
         <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>81.61928733384123</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>0</v>
+        <v>92.6649492891022</v>
       </c>
       <c r="X45" t="n">
         <v>0</v>
@@ -4135,7 +4137,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>92.6649492891022</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4144,7 +4146,7 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>92.6649492891022</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -4153,7 +4155,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.61928733384123</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4195,7 +4197,7 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>92.6649492891022</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>21.18357364821451</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>75.16870670940374</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>166.9070065056148</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>258.6453063018261</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>337.6943058037292</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>370.6597971564088</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>370.6597971564088</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>370.6597971564088</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>370.6597971564088</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>370.6597971564088</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>288.2160725767712</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>194.6151136988902</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>101.0141548210092</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>7.413195943128176</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>194.6151136988902</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>194.6151136988902</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>101.0141548210092</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>101.0141548210092</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>101.0141548210092</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>28.29609765201163</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>102.6982772648967</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>194.4365770611079</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>286.1748768573191</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>317.2247932514005</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>370.6597971564088</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>370.6597971564088</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>370.6597971564088</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>370.6597971564088</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>370.6597971564088</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>288.2160725767712</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>288.2160725767712</v>
       </c>
       <c r="W45" t="n">
-        <v>0</v>
+        <v>194.6151136988902</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>194.6151136988902</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>194.6151136988902</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>277.0588382785278</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>183.4578794006468</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>183.4578794006468</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>183.4578794006468</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>89.85692052276578</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>89.85692052276578</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>89.85692052276578</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>99.15149573933935</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>99.15149573933935</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>187.1831975639864</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>278.9214973601976</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>370.6597971564088</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>370.6597971564088</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>370.6597971564088</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>370.6597971564088</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>370.6597971564088</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>370.6597971564088</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>370.6597971564088</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>277.0588382785278</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>277.0588382785278</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>277.0588382785278</v>
       </c>
     </row>
   </sheetData>
@@ -7976,28 +7978,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>100.9387195582597</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>100.0299464227919</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L2" t="n">
-        <v>86.82148686318186</v>
+        <v>235.7664149699872</v>
       </c>
       <c r="M2" t="n">
-        <v>64.61630209323863</v>
+        <v>230.3462332272727</v>
       </c>
       <c r="N2" t="n">
-        <v>61.00144891149961</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O2" t="n">
-        <v>71.0718992657024</v>
+        <v>230.0982114216867</v>
       </c>
       <c r="P2" t="n">
-        <v>95.50771753390021</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q2" t="n">
-        <v>120.3816583481039</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R2" t="n">
         <v>65.71641987298243</v>
@@ -8055,28 +8057,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>79.12633608862856</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>56.29524403393702</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L3" t="n">
-        <v>28.90545725697471</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M3" t="n">
-        <v>14.17891314335149</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O3" t="n">
-        <v>22.44423757443683</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P3" t="n">
-        <v>37.54182911310821</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q3" t="n">
-        <v>75.51914927829571</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8137,22 +8139,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K4" t="n">
-        <v>79.82491575659759</v>
+        <v>106.7437663446525</v>
       </c>
       <c r="L4" t="n">
-        <v>71.94053294496764</v>
+        <v>134.8846762812383</v>
       </c>
       <c r="M4" t="n">
-        <v>72.56001021962938</v>
+        <v>138.9257839476051</v>
       </c>
       <c r="N4" t="n">
-        <v>62.89780050171086</v>
+        <v>127.6855444652332</v>
       </c>
       <c r="O4" t="n">
-        <v>78.61457070130248</v>
+        <v>138.4565384518428</v>
       </c>
       <c r="P4" t="n">
-        <v>86.52286261917671</v>
+        <v>135.0065633140411</v>
       </c>
       <c r="Q4" t="n">
         <v>65.34295837775146</v>
@@ -8213,28 +8215,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>100.9387195582597</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
-        <v>100.0299464227919</v>
+        <v>208.3214547517356</v>
       </c>
       <c r="L5" t="n">
-        <v>86.82148686318186</v>
+        <v>221.1666787354324</v>
       </c>
       <c r="M5" t="n">
-        <v>64.61630209323863</v>
+        <v>214.1012135983212</v>
       </c>
       <c r="N5" t="n">
-        <v>61.00144891149961</v>
+        <v>212.9051825663978</v>
       </c>
       <c r="O5" t="n">
-        <v>71.0718992657024</v>
+        <v>214.5102874732696</v>
       </c>
       <c r="P5" t="n">
-        <v>95.50771753390021</v>
+        <v>217.9290633046618</v>
       </c>
       <c r="Q5" t="n">
-        <v>120.3816583481039</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R5" t="n">
         <v>65.71641987298243</v>
@@ -8292,28 +8294,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>79.12633608862856</v>
+        <v>122.1609165114202</v>
       </c>
       <c r="K6" t="n">
-        <v>56.29524403393702</v>
+        <v>129.8481964236088</v>
       </c>
       <c r="L6" t="n">
-        <v>28.90545725697471</v>
+        <v>127.8064787429921</v>
       </c>
       <c r="M6" t="n">
-        <v>14.17891314335149</v>
+        <v>129.5917403577182</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>118.4674613291454</v>
       </c>
       <c r="O6" t="n">
-        <v>22.44423757443683</v>
+        <v>130.8188201934042</v>
       </c>
       <c r="P6" t="n">
-        <v>37.54182911310821</v>
+        <v>124.5219861368073</v>
       </c>
       <c r="Q6" t="n">
-        <v>75.51914927829571</v>
+        <v>133.663080786811</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8374,22 +8376,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K7" t="n">
-        <v>79.82491575659759</v>
+        <v>106.7437663446525</v>
       </c>
       <c r="L7" t="n">
-        <v>71.94053294496764</v>
+        <v>128.7148261097669</v>
       </c>
       <c r="M7" t="n">
-        <v>72.56001021962938</v>
+        <v>132.4205420186164</v>
       </c>
       <c r="N7" t="n">
-        <v>62.89780050171086</v>
+        <v>121.3349826493852</v>
       </c>
       <c r="O7" t="n">
-        <v>78.61457070130248</v>
+        <v>132.590766746692</v>
       </c>
       <c r="P7" t="n">
-        <v>86.52286261917671</v>
+        <v>132.7088230120157</v>
       </c>
       <c r="Q7" t="n">
         <v>65.34295837775146</v>
@@ -8450,28 +8452,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>92.06191329280011</v>
+        <v>100.9387195582597</v>
       </c>
       <c r="K8" t="n">
-        <v>86.72591490550931</v>
+        <v>100.0299464227919</v>
       </c>
       <c r="L8" t="n">
-        <v>70.31665934305323</v>
+        <v>86.82148686318186</v>
       </c>
       <c r="M8" t="n">
-        <v>46.25150133729363</v>
+        <v>64.61630209323863</v>
       </c>
       <c r="N8" t="n">
-        <v>42.33948647951536</v>
+        <v>61.00144891149961</v>
       </c>
       <c r="O8" t="n">
-        <v>53.44993733213093</v>
+        <v>71.0718992657024</v>
       </c>
       <c r="P8" t="n">
-        <v>80.46778072209531</v>
+        <v>95.50771753390021</v>
       </c>
       <c r="Q8" t="n">
-        <v>109.0872921559756</v>
+        <v>120.3816583481039</v>
       </c>
       <c r="R8" t="n">
         <v>65.71641987298243</v>
@@ -8529,28 +8531,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>73.83937108913167</v>
+        <v>79.12633608862856</v>
       </c>
       <c r="K9" t="n">
-        <v>47.25897875440141</v>
+        <v>56.29524403393702</v>
       </c>
       <c r="L9" t="n">
-        <v>16.75508344424118</v>
+        <v>28.90545725697471</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>14.17891314335149</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>9.130000058643361</v>
+        <v>22.44423757443683</v>
       </c>
       <c r="P9" t="n">
-        <v>26.85597970277001</v>
+        <v>37.54182911310821</v>
       </c>
       <c r="Q9" t="n">
-        <v>68.37594193669796</v>
+        <v>75.51914927829571</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8611,22 +8613,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K10" t="n">
-        <v>74.37427626277801</v>
+        <v>79.82491575659759</v>
       </c>
       <c r="L10" t="n">
-        <v>64.96559098237566</v>
+        <v>71.94053294496764</v>
       </c>
       <c r="M10" t="n">
-        <v>65.20591187910269</v>
+        <v>72.56001021962938</v>
       </c>
       <c r="N10" t="n">
-        <v>55.71856618250388</v>
+        <v>62.89780050171086</v>
       </c>
       <c r="O10" t="n">
-        <v>71.98338581476828</v>
+        <v>78.61457070130248</v>
       </c>
       <c r="P10" t="n">
-        <v>80.84873837615825</v>
+        <v>86.52286261917671</v>
       </c>
       <c r="Q10" t="n">
         <v>65.34295837775146</v>
@@ -8687,28 +8689,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>71.92258334679384</v>
+        <v>69.70579724700553</v>
       </c>
       <c r="K11" t="n">
-        <v>56.54227989916996</v>
+        <v>53.21989217810253</v>
       </c>
       <c r="L11" t="n">
-        <v>32.8711910981084</v>
+        <v>28.74947534450564</v>
       </c>
       <c r="M11" t="n">
-        <v>4.586202945486122</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>13.46996085601006</v>
+        <v>9.069265482343809</v>
       </c>
       <c r="P11" t="n">
-        <v>46.34579576917247</v>
+        <v>42.58990408143413</v>
       </c>
       <c r="Q11" t="n">
-        <v>83.46310250126157</v>
+        <v>80.64258426171739</v>
       </c>
       <c r="R11" t="n">
         <v>65.71641987298243</v>
@@ -8766,10 +8768,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>61.84452414151258</v>
+        <v>60.52422152698378</v>
       </c>
       <c r="K12" t="n">
-        <v>26.75787480980772</v>
+        <v>24.50126734687161</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8784,10 +8786,10 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>2.612367688219109</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>52.16972933916271</v>
+        <v>50.38587124096644</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -8848,22 +8850,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K13" t="n">
-        <v>62.00809140979796</v>
+        <v>60.64691470913344</v>
       </c>
       <c r="L13" t="n">
-        <v>49.14113189899257</v>
+        <v>47.39929435887775</v>
       </c>
       <c r="M13" t="n">
-        <v>48.52123852856002</v>
+        <v>46.68471506615329</v>
       </c>
       <c r="N13" t="n">
-        <v>39.43061707215854</v>
+        <v>37.63776203285606</v>
       </c>
       <c r="O13" t="n">
-        <v>56.93882853040726</v>
+        <v>55.28283671961447</v>
       </c>
       <c r="P13" t="n">
-        <v>67.97552059180407</v>
+        <v>66.55853351624533</v>
       </c>
       <c r="Q13" t="n">
         <v>65.34295837775146</v>
@@ -8924,28 +8926,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>71.92258334679384</v>
+        <v>69.70579724700553</v>
       </c>
       <c r="K14" t="n">
-        <v>56.54227989916996</v>
+        <v>53.21989217810253</v>
       </c>
       <c r="L14" t="n">
-        <v>32.8711910981084</v>
+        <v>28.74947534450564</v>
       </c>
       <c r="M14" t="n">
-        <v>4.586202945486122</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>13.46996085601006</v>
+        <v>9.069265482343809</v>
       </c>
       <c r="P14" t="n">
-        <v>46.34579576917247</v>
+        <v>42.58990408143413</v>
       </c>
       <c r="Q14" t="n">
-        <v>83.46310250126157</v>
+        <v>80.64258426171739</v>
       </c>
       <c r="R14" t="n">
         <v>65.71641987298243</v>
@@ -9003,10 +9005,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>61.84452414151258</v>
+        <v>60.52422152698378</v>
       </c>
       <c r="K15" t="n">
-        <v>26.75787480980772</v>
+        <v>24.50126734687161</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9021,10 +9023,10 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>2.612367688219109</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>52.16972933916271</v>
+        <v>50.38587124096644</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9085,22 +9087,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K16" t="n">
-        <v>62.00809140979796</v>
+        <v>60.64691470913344</v>
       </c>
       <c r="L16" t="n">
-        <v>49.14113189899257</v>
+        <v>47.39929435887775</v>
       </c>
       <c r="M16" t="n">
-        <v>48.52123852856002</v>
+        <v>46.68471506615329</v>
       </c>
       <c r="N16" t="n">
-        <v>39.43061707215854</v>
+        <v>37.63776203285606</v>
       </c>
       <c r="O16" t="n">
-        <v>56.93882853040726</v>
+        <v>55.28283671961447</v>
       </c>
       <c r="P16" t="n">
-        <v>67.97552059180407</v>
+        <v>66.55853351624533</v>
       </c>
       <c r="Q16" t="n">
         <v>65.34295837775146</v>
@@ -9161,28 +9163,28 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>71.92258334679384</v>
+        <v>69.70579724700553</v>
       </c>
       <c r="K17" t="n">
-        <v>56.54227989916996</v>
+        <v>53.21989217810253</v>
       </c>
       <c r="L17" t="n">
-        <v>32.8711910981084</v>
+        <v>28.74947534450564</v>
       </c>
       <c r="M17" t="n">
-        <v>4.586202945486122</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>13.46996085601006</v>
+        <v>9.069265482343809</v>
       </c>
       <c r="P17" t="n">
-        <v>46.34579576917247</v>
+        <v>42.58990408143413</v>
       </c>
       <c r="Q17" t="n">
-        <v>83.46310250126157</v>
+        <v>80.64258426171739</v>
       </c>
       <c r="R17" t="n">
         <v>65.71641987298243</v>
@@ -9240,10 +9242,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>61.84452414151258</v>
+        <v>60.52422152698378</v>
       </c>
       <c r="K18" t="n">
-        <v>26.75787480980772</v>
+        <v>24.50126734687161</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9258,10 +9260,10 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>2.612367688219109</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>52.16972933916271</v>
+        <v>50.38587124096644</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9322,22 +9324,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K19" t="n">
-        <v>62.00809140979796</v>
+        <v>60.64691470913344</v>
       </c>
       <c r="L19" t="n">
-        <v>49.14113189899257</v>
+        <v>47.39929435887775</v>
       </c>
       <c r="M19" t="n">
-        <v>48.52123852856002</v>
+        <v>46.68471506615329</v>
       </c>
       <c r="N19" t="n">
-        <v>39.43061707215854</v>
+        <v>37.63776203285606</v>
       </c>
       <c r="O19" t="n">
-        <v>56.93882853040726</v>
+        <v>55.28283671961447</v>
       </c>
       <c r="P19" t="n">
-        <v>67.97552059180407</v>
+        <v>66.55853351624533</v>
       </c>
       <c r="Q19" t="n">
         <v>65.34295837775146</v>
@@ -9398,28 +9400,28 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>71.92258334679384</v>
+        <v>69.70579724700553</v>
       </c>
       <c r="K20" t="n">
-        <v>56.54227989916996</v>
+        <v>53.21989217810253</v>
       </c>
       <c r="L20" t="n">
-        <v>32.8711910981084</v>
+        <v>28.74947534450564</v>
       </c>
       <c r="M20" t="n">
-        <v>4.586202945486122</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>13.46996085601006</v>
+        <v>9.069265482343809</v>
       </c>
       <c r="P20" t="n">
-        <v>46.34579576917247</v>
+        <v>42.58990408143413</v>
       </c>
       <c r="Q20" t="n">
-        <v>83.46310250126157</v>
+        <v>80.64258426171739</v>
       </c>
       <c r="R20" t="n">
         <v>65.71641987298243</v>
@@ -9477,10 +9479,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>61.84452414151258</v>
+        <v>60.52422152698378</v>
       </c>
       <c r="K21" t="n">
-        <v>26.75787480980772</v>
+        <v>24.50126734687161</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9495,10 +9497,10 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>2.612367688219109</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>52.16972933916271</v>
+        <v>50.38587124096644</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9559,22 +9561,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K22" t="n">
-        <v>62.00809140979796</v>
+        <v>60.64691470913344</v>
       </c>
       <c r="L22" t="n">
-        <v>49.14113189899257</v>
+        <v>47.39929435887775</v>
       </c>
       <c r="M22" t="n">
-        <v>48.52123852856002</v>
+        <v>46.68471506615329</v>
       </c>
       <c r="N22" t="n">
-        <v>39.43061707215854</v>
+        <v>37.63776203285606</v>
       </c>
       <c r="O22" t="n">
-        <v>56.93882853040726</v>
+        <v>55.28283671961447</v>
       </c>
       <c r="P22" t="n">
-        <v>67.97552059180407</v>
+        <v>66.55853351624533</v>
       </c>
       <c r="Q22" t="n">
         <v>65.34295837775146</v>
@@ -9635,28 +9637,28 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>71.92258334679384</v>
+        <v>69.70579724700553</v>
       </c>
       <c r="K23" t="n">
-        <v>56.54227989916996</v>
+        <v>53.21989217810253</v>
       </c>
       <c r="L23" t="n">
-        <v>32.8711910981084</v>
+        <v>28.74947534450564</v>
       </c>
       <c r="M23" t="n">
-        <v>4.586202945486122</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>13.46996085601006</v>
+        <v>9.069265482343809</v>
       </c>
       <c r="P23" t="n">
-        <v>46.34579576917247</v>
+        <v>42.58990408143413</v>
       </c>
       <c r="Q23" t="n">
-        <v>83.46310250126157</v>
+        <v>80.64258426171739</v>
       </c>
       <c r="R23" t="n">
         <v>65.71641987298243</v>
@@ -9714,10 +9716,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>61.84452414151258</v>
+        <v>60.52422152698378</v>
       </c>
       <c r="K24" t="n">
-        <v>26.75787480980772</v>
+        <v>24.50126734687161</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -9732,10 +9734,10 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>2.612367688219109</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>52.16972933916271</v>
+        <v>50.38587124096644</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9796,22 +9798,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K25" t="n">
-        <v>62.00809140979796</v>
+        <v>60.64691470913344</v>
       </c>
       <c r="L25" t="n">
-        <v>49.14113189899257</v>
+        <v>47.39929435887775</v>
       </c>
       <c r="M25" t="n">
-        <v>48.52123852856002</v>
+        <v>46.68471506615329</v>
       </c>
       <c r="N25" t="n">
-        <v>39.43061707215854</v>
+        <v>37.63776203285606</v>
       </c>
       <c r="O25" t="n">
-        <v>56.93882853040726</v>
+        <v>55.28283671961447</v>
       </c>
       <c r="P25" t="n">
-        <v>67.97552059180407</v>
+        <v>66.55853351624533</v>
       </c>
       <c r="Q25" t="n">
         <v>65.34295837775146</v>
@@ -9872,28 +9874,28 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>71.92258334679384</v>
+        <v>69.70579724700553</v>
       </c>
       <c r="K26" t="n">
-        <v>56.54227989916996</v>
+        <v>53.21989217810253</v>
       </c>
       <c r="L26" t="n">
-        <v>32.8711910981084</v>
+        <v>28.74947534450564</v>
       </c>
       <c r="M26" t="n">
-        <v>4.586202945486122</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>13.46996085601006</v>
+        <v>9.069265482343809</v>
       </c>
       <c r="P26" t="n">
-        <v>46.34579576917247</v>
+        <v>42.58990408143413</v>
       </c>
       <c r="Q26" t="n">
-        <v>83.46310250126157</v>
+        <v>80.64258426171739</v>
       </c>
       <c r="R26" t="n">
         <v>65.71641987298243</v>
@@ -9951,10 +9953,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>61.84452414151258</v>
+        <v>60.52422152698378</v>
       </c>
       <c r="K27" t="n">
-        <v>26.75787480980772</v>
+        <v>24.50126734687161</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -9969,10 +9971,10 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>2.612367688219109</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>52.16972933916271</v>
+        <v>50.38587124096644</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10033,22 +10035,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K28" t="n">
-        <v>62.00809140979796</v>
+        <v>60.64691470913344</v>
       </c>
       <c r="L28" t="n">
-        <v>49.14113189899257</v>
+        <v>47.39929435887775</v>
       </c>
       <c r="M28" t="n">
-        <v>48.52123852856002</v>
+        <v>46.68471506615329</v>
       </c>
       <c r="N28" t="n">
-        <v>39.43061707215854</v>
+        <v>37.63776203285606</v>
       </c>
       <c r="O28" t="n">
-        <v>56.93882853040726</v>
+        <v>55.28283671961447</v>
       </c>
       <c r="P28" t="n">
-        <v>67.97552059180407</v>
+        <v>66.55853351624533</v>
       </c>
       <c r="Q28" t="n">
         <v>65.34295837775146</v>
@@ -10109,28 +10111,28 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>71.92258334679384</v>
+        <v>69.70579724700553</v>
       </c>
       <c r="K29" t="n">
-        <v>56.54227989916996</v>
+        <v>53.21989217810253</v>
       </c>
       <c r="L29" t="n">
-        <v>32.8711910981084</v>
+        <v>28.74947534450564</v>
       </c>
       <c r="M29" t="n">
-        <v>4.586202945486122</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>13.46996085601006</v>
+        <v>9.069265482343809</v>
       </c>
       <c r="P29" t="n">
-        <v>46.34579576917247</v>
+        <v>42.58990408143413</v>
       </c>
       <c r="Q29" t="n">
-        <v>83.46310250126157</v>
+        <v>80.64258426171739</v>
       </c>
       <c r="R29" t="n">
         <v>65.71641987298243</v>
@@ -10188,10 +10190,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>61.84452414151258</v>
+        <v>60.52422152698378</v>
       </c>
       <c r="K30" t="n">
-        <v>26.75787480980772</v>
+        <v>24.50126734687161</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -10206,10 +10208,10 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>2.612367688219109</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>52.16972933916271</v>
+        <v>50.38587124096644</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10270,22 +10272,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K31" t="n">
-        <v>62.00809140979796</v>
+        <v>60.64691470913344</v>
       </c>
       <c r="L31" t="n">
-        <v>49.14113189899257</v>
+        <v>47.39929435887775</v>
       </c>
       <c r="M31" t="n">
-        <v>48.52123852856002</v>
+        <v>46.68471506615329</v>
       </c>
       <c r="N31" t="n">
-        <v>39.43061707215854</v>
+        <v>37.63776203285606</v>
       </c>
       <c r="O31" t="n">
-        <v>56.93882853040726</v>
+        <v>55.28283671961447</v>
       </c>
       <c r="P31" t="n">
-        <v>67.97552059180407</v>
+        <v>66.55853351624533</v>
       </c>
       <c r="Q31" t="n">
         <v>65.34295837775146</v>
@@ -10346,28 +10348,28 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>71.92258334679384</v>
+        <v>69.70579724700553</v>
       </c>
       <c r="K32" t="n">
-        <v>56.54227989916996</v>
+        <v>53.21989217810253</v>
       </c>
       <c r="L32" t="n">
-        <v>32.8711910981084</v>
+        <v>28.74947534450564</v>
       </c>
       <c r="M32" t="n">
-        <v>4.586202945486122</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>13.46996085601006</v>
+        <v>9.069265482343809</v>
       </c>
       <c r="P32" t="n">
-        <v>46.34579576917247</v>
+        <v>42.58990408143413</v>
       </c>
       <c r="Q32" t="n">
-        <v>83.46310250126157</v>
+        <v>80.64258426171739</v>
       </c>
       <c r="R32" t="n">
         <v>65.71641987298243</v>
@@ -10425,10 +10427,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>61.84452414151258</v>
+        <v>60.52422152698378</v>
       </c>
       <c r="K33" t="n">
-        <v>26.75787480980772</v>
+        <v>24.50126734687161</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -10443,10 +10445,10 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>2.612367688219109</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>52.16972933916271</v>
+        <v>50.38587124096644</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10507,22 +10509,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K34" t="n">
-        <v>62.00809140979796</v>
+        <v>60.64691470913344</v>
       </c>
       <c r="L34" t="n">
-        <v>49.14113189899257</v>
+        <v>47.39929435887775</v>
       </c>
       <c r="M34" t="n">
-        <v>48.52123852856002</v>
+        <v>46.68471506615329</v>
       </c>
       <c r="N34" t="n">
-        <v>39.43061707215854</v>
+        <v>37.63776203285606</v>
       </c>
       <c r="O34" t="n">
-        <v>56.93882853040726</v>
+        <v>55.28283671961447</v>
       </c>
       <c r="P34" t="n">
-        <v>67.97552059180407</v>
+        <v>66.55853351624533</v>
       </c>
       <c r="Q34" t="n">
         <v>65.34295837775146</v>
@@ -10583,28 +10585,28 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>71.92258334679384</v>
+        <v>69.70579724700553</v>
       </c>
       <c r="K35" t="n">
-        <v>56.54227989916996</v>
+        <v>53.21989217810253</v>
       </c>
       <c r="L35" t="n">
-        <v>32.8711910981084</v>
+        <v>28.74947534450564</v>
       </c>
       <c r="M35" t="n">
-        <v>4.586202945486122</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>13.46996085601006</v>
+        <v>9.069265482343809</v>
       </c>
       <c r="P35" t="n">
-        <v>46.34579576917247</v>
+        <v>42.58990408143413</v>
       </c>
       <c r="Q35" t="n">
-        <v>83.46310250126157</v>
+        <v>80.64258426171739</v>
       </c>
       <c r="R35" t="n">
         <v>65.71641987298243</v>
@@ -10662,10 +10664,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>61.84452414151258</v>
+        <v>60.52422152698378</v>
       </c>
       <c r="K36" t="n">
-        <v>26.75787480980772</v>
+        <v>24.50126734687161</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -10680,10 +10682,10 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>2.612367688219109</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>52.16972933916271</v>
+        <v>50.38587124096644</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10744,22 +10746,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K37" t="n">
-        <v>62.00809140979796</v>
+        <v>60.64691470913344</v>
       </c>
       <c r="L37" t="n">
-        <v>49.14113189899257</v>
+        <v>47.39929435887775</v>
       </c>
       <c r="M37" t="n">
-        <v>48.52123852856002</v>
+        <v>46.68471506615329</v>
       </c>
       <c r="N37" t="n">
-        <v>39.43061707215854</v>
+        <v>37.63776203285606</v>
       </c>
       <c r="O37" t="n">
-        <v>56.93882853040726</v>
+        <v>55.28283671961447</v>
       </c>
       <c r="P37" t="n">
-        <v>67.97552059180407</v>
+        <v>66.55853351624533</v>
       </c>
       <c r="Q37" t="n">
         <v>65.34295837775146</v>
@@ -10820,28 +10822,28 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>71.92258334679384</v>
+        <v>69.70579724700553</v>
       </c>
       <c r="K38" t="n">
-        <v>56.54227989916996</v>
+        <v>53.21989217810253</v>
       </c>
       <c r="L38" t="n">
-        <v>32.8711910981084</v>
+        <v>28.74947534450564</v>
       </c>
       <c r="M38" t="n">
-        <v>4.586202945486122</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>13.46996085601006</v>
+        <v>9.069265482343809</v>
       </c>
       <c r="P38" t="n">
-        <v>46.34579576917247</v>
+        <v>42.58990408143413</v>
       </c>
       <c r="Q38" t="n">
-        <v>83.46310250126157</v>
+        <v>80.64258426171739</v>
       </c>
       <c r="R38" t="n">
         <v>65.71641987298243</v>
@@ -10899,10 +10901,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>61.84452414151258</v>
+        <v>60.52422152698378</v>
       </c>
       <c r="K39" t="n">
-        <v>26.75787480980772</v>
+        <v>24.50126734687161</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -10917,10 +10919,10 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>2.612367688219109</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>52.16972933916271</v>
+        <v>50.38587124096644</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -10981,22 +10983,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K40" t="n">
-        <v>62.00809140979796</v>
+        <v>60.64691470913344</v>
       </c>
       <c r="L40" t="n">
-        <v>49.14113189899257</v>
+        <v>47.39929435887775</v>
       </c>
       <c r="M40" t="n">
-        <v>48.52123852856002</v>
+        <v>46.68471506615329</v>
       </c>
       <c r="N40" t="n">
-        <v>39.43061707215854</v>
+        <v>37.63776203285606</v>
       </c>
       <c r="O40" t="n">
-        <v>56.93882853040726</v>
+        <v>55.28283671961447</v>
       </c>
       <c r="P40" t="n">
-        <v>67.97552059180407</v>
+        <v>66.55853351624533</v>
       </c>
       <c r="Q40" t="n">
         <v>65.34295837775146</v>
@@ -11057,28 +11059,28 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>71.92258334679384</v>
+        <v>69.70579724700553</v>
       </c>
       <c r="K41" t="n">
-        <v>56.54227989916996</v>
+        <v>53.21989217810253</v>
       </c>
       <c r="L41" t="n">
-        <v>32.8711910981084</v>
+        <v>28.74947534450564</v>
       </c>
       <c r="M41" t="n">
-        <v>4.586202945486122</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>13.46996085601006</v>
+        <v>9.069265482343809</v>
       </c>
       <c r="P41" t="n">
-        <v>46.34579576917247</v>
+        <v>42.58990408143413</v>
       </c>
       <c r="Q41" t="n">
-        <v>83.46310250126157</v>
+        <v>80.64258426171739</v>
       </c>
       <c r="R41" t="n">
         <v>65.71641987298243</v>
@@ -11136,10 +11138,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>61.84452414151258</v>
+        <v>60.52422152698378</v>
       </c>
       <c r="K42" t="n">
-        <v>26.75787480980772</v>
+        <v>24.50126734687161</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11154,10 +11156,10 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>2.612367688219109</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>52.16972933916271</v>
+        <v>50.38587124096644</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11218,22 +11220,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K43" t="n">
-        <v>62.00809140979796</v>
+        <v>60.64691470913344</v>
       </c>
       <c r="L43" t="n">
-        <v>49.14113189899257</v>
+        <v>47.39929435887775</v>
       </c>
       <c r="M43" t="n">
-        <v>48.52123852856002</v>
+        <v>46.68471506615329</v>
       </c>
       <c r="N43" t="n">
-        <v>39.43061707215854</v>
+        <v>37.63776203285606</v>
       </c>
       <c r="O43" t="n">
-        <v>56.93882853040726</v>
+        <v>55.28283671961447</v>
       </c>
       <c r="P43" t="n">
-        <v>67.97552059180407</v>
+        <v>66.55853351624533</v>
       </c>
       <c r="Q43" t="n">
         <v>65.34295837775146</v>
@@ -11294,28 +11296,28 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>71.92258334679384</v>
+        <v>24.91528667358037</v>
       </c>
       <c r="K44" t="n">
-        <v>56.54227989916996</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>32.8711910981084</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>4.586202945486122</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>13.46996085601006</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>46.34579576917247</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>83.46310250126157</v>
+        <v>23.65357118422324</v>
       </c>
       <c r="R44" t="n">
         <v>65.71641987298243</v>
@@ -11373,10 +11375,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>61.84452414151258</v>
+        <v>33.84730027516773</v>
       </c>
       <c r="K45" t="n">
-        <v>26.75787480980772</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11391,10 +11393,10 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>2.612367688219109</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>52.16972933916271</v>
+        <v>14.3427387906227</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -11455,22 +11457,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K46" t="n">
-        <v>62.00809140979796</v>
+        <v>33.14412614092828</v>
       </c>
       <c r="L46" t="n">
-        <v>49.14113189899257</v>
+        <v>104.8701431593706</v>
       </c>
       <c r="M46" t="n">
-        <v>48.52123852856002</v>
+        <v>9.577470677924651</v>
       </c>
       <c r="N46" t="n">
-        <v>39.43061707215854</v>
+        <v>90.33375591139712</v>
       </c>
       <c r="O46" t="n">
-        <v>56.93882853040726</v>
+        <v>114.4882119352852</v>
       </c>
       <c r="P46" t="n">
-        <v>67.97552059180407</v>
+        <v>130.5930368654883</v>
       </c>
       <c r="Q46" t="n">
         <v>65.34295837775146</v>
@@ -22559,16 +22561,16 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>414.3588981658848</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H2" t="n">
-        <v>329.8087073802583</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I2" t="n">
-        <v>174.0885230584365</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -22589,19 +22591,19 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>90.58066941881005</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
-        <v>187.5123304152058</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
-        <v>218.9641928127885</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2701457598965</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -22638,16 +22640,16 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>136.8385185906377</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
-        <v>107.3582211803319</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
-        <v>72.00962059397116</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -22671,16 +22673,16 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>68.80362453272261</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
-        <v>162.3030441088983</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
-        <v>198.1292300623896</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
-        <v>225.908158490674</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
@@ -22717,19 +22719,19 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>167.5676055192152</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H4" t="n">
-        <v>158.4629941912556</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I4" t="n">
-        <v>142.7184689252781</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J4" t="n">
-        <v>63.42664968215054</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -22744,22 +22746,22 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
-        <v>50.71025749466926</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R4" t="n">
-        <v>158.2569640235438</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S4" t="n">
-        <v>216.6383466748816</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T4" t="n">
-        <v>226.1366284787861</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2959362379867</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -22796,16 +22798,16 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>414.3588981658848</v>
+        <v>415.2102214038314</v>
       </c>
       <c r="H5" t="n">
-        <v>329.8087073802583</v>
+        <v>338.5273214908784</v>
       </c>
       <c r="I5" t="n">
-        <v>174.0885230584365</v>
+        <v>206.909162189371</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>4.097100052852173</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -22829,16 +22831,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>90.58066941881005</v>
+        <v>144.0576027644702</v>
       </c>
       <c r="S5" t="n">
-        <v>187.5123304152058</v>
+        <v>206.9118586999128</v>
       </c>
       <c r="T5" t="n">
-        <v>218.9641928127885</v>
+        <v>222.6908602868995</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2701457598965</v>
+        <v>251.3382516189322</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -22875,13 +22877,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>136.8385185906377</v>
+        <v>137.2940166796957</v>
       </c>
       <c r="H6" t="n">
-        <v>107.3582211803319</v>
+        <v>111.757373777286</v>
       </c>
       <c r="I6" t="n">
-        <v>72.00962059397116</v>
+        <v>87.69233988828964</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -22908,16 +22910,16 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>68.80362453272261</v>
+        <v>97.08446202703757</v>
       </c>
       <c r="S6" t="n">
-        <v>162.3030441088983</v>
+        <v>170.7637213332854</v>
       </c>
       <c r="T6" t="n">
-        <v>198.1292300623896</v>
+        <v>199.9652070090748</v>
       </c>
       <c r="U6" t="n">
-        <v>225.908158490674</v>
+        <v>225.9381254702172</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
@@ -22954,19 +22956,19 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.5676055192152</v>
+        <v>167.9494798159088</v>
       </c>
       <c r="H7" t="n">
-        <v>158.4629941912556</v>
+        <v>161.8582038473137</v>
       </c>
       <c r="I7" t="n">
-        <v>142.7184689252781</v>
+        <v>154.2024705022108</v>
       </c>
       <c r="J7" t="n">
-        <v>63.42664968215054</v>
+        <v>90.42516245839145</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>17.44799951871617</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -22984,19 +22986,19 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>50.71025749466926</v>
+        <v>82.6870224659892</v>
       </c>
       <c r="R7" t="n">
-        <v>158.2569640235438</v>
+        <v>175.4274210366964</v>
       </c>
       <c r="S7" t="n">
-        <v>216.6383466748816</v>
+        <v>223.2933741908973</v>
       </c>
       <c r="T7" t="n">
-        <v>226.1366284787861</v>
+        <v>227.7682732010226</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2959362379867</v>
+        <v>286.3167657450791</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -23033,13 +23035,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>414.2543098065221</v>
+        <v>414.3588981658848</v>
       </c>
       <c r="H8" t="n">
-        <v>328.737591844935</v>
+        <v>329.8087073802583</v>
       </c>
       <c r="I8" t="n">
-        <v>170.0563803341062</v>
+        <v>174.0885230584365</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23066,16 +23068,16 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>84.01082088999308</v>
+        <v>90.58066941881005</v>
       </c>
       <c r="S8" t="n">
-        <v>185.1290231762283</v>
+        <v>187.5123304152058</v>
       </c>
       <c r="T8" t="n">
-        <v>218.5063572696783</v>
+        <v>218.9641928127885</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2617786911475</v>
+        <v>251.2701457598965</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -23112,13 +23114,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>136.7825588849655</v>
+        <v>136.8385185906377</v>
       </c>
       <c r="H9" t="n">
-        <v>106.817768233445</v>
+        <v>107.3582211803319</v>
       </c>
       <c r="I9" t="n">
-        <v>70.08293774516886</v>
+        <v>72.00962059397116</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -23145,16 +23147,16 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>65.32921403493339</v>
+        <v>68.80362453272261</v>
       </c>
       <c r="S9" t="n">
-        <v>161.2636171197674</v>
+        <v>162.3030441088983</v>
       </c>
       <c r="T9" t="n">
-        <v>197.9036731785617</v>
+        <v>198.1292300623896</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9044769310903</v>
+        <v>225.908158490674</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
@@ -23191,16 +23193,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>167.5206907817879</v>
+        <v>167.5676055192152</v>
       </c>
       <c r="H10" t="n">
-        <v>158.0458795257661</v>
+        <v>158.4629941912556</v>
       </c>
       <c r="I10" t="n">
-        <v>141.3076148215571</v>
+        <v>142.7184689252781</v>
       </c>
       <c r="J10" t="n">
-        <v>60.10977774604451</v>
+        <v>63.42664968215054</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -23221,19 +23223,19 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>46.78178798155719</v>
+        <v>50.71025749466926</v>
       </c>
       <c r="R10" t="n">
-        <v>156.1475068297698</v>
+        <v>158.2569640235438</v>
       </c>
       <c r="S10" t="n">
-        <v>215.8207507508087</v>
+        <v>216.6383466748816</v>
       </c>
       <c r="T10" t="n">
-        <v>225.9361746006879</v>
+        <v>226.1366284787861</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2933772523089</v>
+        <v>286.2959362379867</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -23270,13 +23272,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>414.0170240739369</v>
+        <v>413.9909054436208</v>
       </c>
       <c r="H11" t="n">
-        <v>326.3074893360965</v>
+        <v>326.0400019133721</v>
       </c>
       <c r="I11" t="n">
-        <v>160.9084221286138</v>
+        <v>159.9014836333536</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23303,16 +23305,16 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>69.10542099048568</v>
+        <v>67.46474657889404</v>
       </c>
       <c r="S11" t="n">
-        <v>179.7218745449422</v>
+        <v>179.1266962566148</v>
       </c>
       <c r="T11" t="n">
-        <v>217.4676389752864</v>
+        <v>217.3533046710778</v>
       </c>
       <c r="U11" t="n">
-        <v>251.2427958325407</v>
+        <v>251.2407063421153</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -23349,13 +23351,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>136.6555998253092</v>
+        <v>136.6416251260792</v>
       </c>
       <c r="H12" t="n">
-        <v>105.5916109993956</v>
+        <v>105.4566448252536</v>
       </c>
       <c r="I12" t="n">
-        <v>65.71175959472041</v>
+        <v>65.23061315193451</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -23382,16 +23384,16 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>57.4466155766215</v>
+        <v>56.57895837355435</v>
       </c>
       <c r="S12" t="n">
-        <v>158.905408270449</v>
+        <v>158.6458343615066</v>
       </c>
       <c r="T12" t="n">
-        <v>197.3919390740697</v>
+        <v>197.3356112293665</v>
       </c>
       <c r="U12" t="n">
-        <v>225.8961243613761</v>
+        <v>225.8952049732688</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
@@ -23428,16 +23430,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>167.4142525710033</v>
+        <v>167.4025366526095</v>
       </c>
       <c r="H13" t="n">
-        <v>157.0995470698808</v>
+        <v>156.9953819045248</v>
       </c>
       <c r="I13" t="n">
-        <v>138.1067275372333</v>
+        <v>137.7543979186262</v>
       </c>
       <c r="J13" t="n">
-        <v>52.58459624356988</v>
+        <v>51.75628081312638</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23458,19 +23460,19 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>37.86903925848996</v>
+        <v>36.88799085553058</v>
       </c>
       <c r="R13" t="n">
-        <v>151.3616578248528</v>
+        <v>150.8348675305268</v>
       </c>
       <c r="S13" t="n">
-        <v>213.9658230228616</v>
+        <v>213.761646517762</v>
       </c>
       <c r="T13" t="n">
-        <v>225.481393154608</v>
+        <v>225.4313342305617</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2875715317206</v>
+        <v>286.2869324816264</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -23507,13 +23509,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>414.0170240739369</v>
+        <v>413.9909054436208</v>
       </c>
       <c r="H14" t="n">
-        <v>326.3074893360965</v>
+        <v>326.0400019133721</v>
       </c>
       <c r="I14" t="n">
-        <v>160.9084221286138</v>
+        <v>159.9014836333536</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23540,16 +23542,16 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>69.10542099048568</v>
+        <v>67.46474657889404</v>
       </c>
       <c r="S14" t="n">
-        <v>179.7218745449422</v>
+        <v>179.1266962566148</v>
       </c>
       <c r="T14" t="n">
-        <v>217.4676389752864</v>
+        <v>217.3533046710778</v>
       </c>
       <c r="U14" t="n">
-        <v>251.2427958325407</v>
+        <v>251.2407063421153</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -23586,13 +23588,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>136.6555998253092</v>
+        <v>136.6416251260792</v>
       </c>
       <c r="H15" t="n">
-        <v>105.5916109993956</v>
+        <v>105.4566448252536</v>
       </c>
       <c r="I15" t="n">
-        <v>65.71175959472041</v>
+        <v>65.23061315193451</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -23619,16 +23621,16 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>57.4466155766215</v>
+        <v>56.57895837355435</v>
       </c>
       <c r="S15" t="n">
-        <v>158.905408270449</v>
+        <v>158.6458343615066</v>
       </c>
       <c r="T15" t="n">
-        <v>197.3919390740697</v>
+        <v>197.3356112293665</v>
       </c>
       <c r="U15" t="n">
-        <v>225.8961243613761</v>
+        <v>225.8952049732688</v>
       </c>
       <c r="V15" t="n">
         <v>232.8005871494253</v>
@@ -23665,16 +23667,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>167.4142525710033</v>
+        <v>167.4025366526095</v>
       </c>
       <c r="H16" t="n">
-        <v>157.0995470698808</v>
+        <v>156.9953819045248</v>
       </c>
       <c r="I16" t="n">
-        <v>138.1067275372333</v>
+        <v>137.7543979186262</v>
       </c>
       <c r="J16" t="n">
-        <v>52.58459624356988</v>
+        <v>51.75628081312638</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23695,19 +23697,19 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>37.86903925848996</v>
+        <v>36.88799085553058</v>
       </c>
       <c r="R16" t="n">
-        <v>151.3616578248528</v>
+        <v>150.8348675305268</v>
       </c>
       <c r="S16" t="n">
-        <v>213.9658230228616</v>
+        <v>213.761646517762</v>
       </c>
       <c r="T16" t="n">
-        <v>225.481393154608</v>
+        <v>225.4313342305617</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2875715317206</v>
+        <v>286.2869324816264</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -23744,13 +23746,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>414.0170240739369</v>
+        <v>413.9909054436208</v>
       </c>
       <c r="H17" t="n">
-        <v>326.3074893360965</v>
+        <v>326.0400019133721</v>
       </c>
       <c r="I17" t="n">
-        <v>160.9084221286138</v>
+        <v>159.9014836333536</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23777,16 +23779,16 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>69.10542099048568</v>
+        <v>67.46474657889404</v>
       </c>
       <c r="S17" t="n">
-        <v>179.7218745449422</v>
+        <v>179.1266962566148</v>
       </c>
       <c r="T17" t="n">
-        <v>217.4676389752864</v>
+        <v>217.3533046710778</v>
       </c>
       <c r="U17" t="n">
-        <v>251.2427958325407</v>
+        <v>251.2407063421153</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -23823,13 +23825,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>136.6555998253092</v>
+        <v>136.6416251260792</v>
       </c>
       <c r="H18" t="n">
-        <v>105.5916109993956</v>
+        <v>105.4566448252536</v>
       </c>
       <c r="I18" t="n">
-        <v>65.71175959472041</v>
+        <v>65.23061315193451</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -23856,16 +23858,16 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>57.4466155766215</v>
+        <v>56.57895837355435</v>
       </c>
       <c r="S18" t="n">
-        <v>158.905408270449</v>
+        <v>158.6458343615066</v>
       </c>
       <c r="T18" t="n">
-        <v>197.3919390740697</v>
+        <v>197.3356112293665</v>
       </c>
       <c r="U18" t="n">
-        <v>225.8961243613761</v>
+        <v>225.8952049732688</v>
       </c>
       <c r="V18" t="n">
         <v>232.8005871494253</v>
@@ -23902,16 +23904,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>167.4142525710033</v>
+        <v>167.4025366526095</v>
       </c>
       <c r="H19" t="n">
-        <v>157.0995470698808</v>
+        <v>156.9953819045248</v>
       </c>
       <c r="I19" t="n">
-        <v>138.1067275372333</v>
+        <v>137.7543979186262</v>
       </c>
       <c r="J19" t="n">
-        <v>52.58459624356988</v>
+        <v>51.75628081312638</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -23932,19 +23934,19 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>37.86903925848996</v>
+        <v>36.88799085553058</v>
       </c>
       <c r="R19" t="n">
-        <v>151.3616578248528</v>
+        <v>150.8348675305268</v>
       </c>
       <c r="S19" t="n">
-        <v>213.9658230228616</v>
+        <v>213.761646517762</v>
       </c>
       <c r="T19" t="n">
-        <v>225.481393154608</v>
+        <v>225.4313342305617</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2875715317206</v>
+        <v>286.2869324816264</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -23981,13 +23983,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>414.0170240739369</v>
+        <v>413.9909054436208</v>
       </c>
       <c r="H20" t="n">
-        <v>326.3074893360965</v>
+        <v>326.0400019133721</v>
       </c>
       <c r="I20" t="n">
-        <v>160.9084221286138</v>
+        <v>159.9014836333536</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24014,16 +24016,16 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>69.10542099048568</v>
+        <v>67.46474657889404</v>
       </c>
       <c r="S20" t="n">
-        <v>179.7218745449422</v>
+        <v>179.1266962566148</v>
       </c>
       <c r="T20" t="n">
-        <v>217.4676389752864</v>
+        <v>217.3533046710778</v>
       </c>
       <c r="U20" t="n">
-        <v>251.2427958325407</v>
+        <v>251.2407063421153</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -24060,13 +24062,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>136.6555998253092</v>
+        <v>136.6416251260792</v>
       </c>
       <c r="H21" t="n">
-        <v>105.5916109993956</v>
+        <v>105.4566448252536</v>
       </c>
       <c r="I21" t="n">
-        <v>65.71175959472041</v>
+        <v>65.23061315193451</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -24093,16 +24095,16 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>57.4466155766215</v>
+        <v>56.57895837355435</v>
       </c>
       <c r="S21" t="n">
-        <v>158.905408270449</v>
+        <v>158.6458343615066</v>
       </c>
       <c r="T21" t="n">
-        <v>197.3919390740697</v>
+        <v>197.3356112293665</v>
       </c>
       <c r="U21" t="n">
-        <v>225.8961243613761</v>
+        <v>225.8952049732688</v>
       </c>
       <c r="V21" t="n">
         <v>232.8005871494253</v>
@@ -24139,16 +24141,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>167.4142525710033</v>
+        <v>167.4025366526095</v>
       </c>
       <c r="H22" t="n">
-        <v>157.0995470698808</v>
+        <v>156.9953819045248</v>
       </c>
       <c r="I22" t="n">
-        <v>138.1067275372333</v>
+        <v>137.7543979186262</v>
       </c>
       <c r="J22" t="n">
-        <v>52.58459624356988</v>
+        <v>51.75628081312638</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24169,19 +24171,19 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>37.86903925848996</v>
+        <v>36.88799085553058</v>
       </c>
       <c r="R22" t="n">
-        <v>151.3616578248528</v>
+        <v>150.8348675305268</v>
       </c>
       <c r="S22" t="n">
-        <v>213.9658230228616</v>
+        <v>213.761646517762</v>
       </c>
       <c r="T22" t="n">
-        <v>225.481393154608</v>
+        <v>225.4313342305617</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2875715317206</v>
+        <v>286.2869324816264</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -24218,13 +24220,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>414.0170240739369</v>
+        <v>413.9909054436208</v>
       </c>
       <c r="H23" t="n">
-        <v>326.3074893360965</v>
+        <v>326.0400019133721</v>
       </c>
       <c r="I23" t="n">
-        <v>160.9084221286138</v>
+        <v>159.9014836333536</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24251,16 +24253,16 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>69.10542099048568</v>
+        <v>67.46474657889404</v>
       </c>
       <c r="S23" t="n">
-        <v>179.7218745449422</v>
+        <v>179.1266962566148</v>
       </c>
       <c r="T23" t="n">
-        <v>217.4676389752864</v>
+        <v>217.3533046710778</v>
       </c>
       <c r="U23" t="n">
-        <v>251.2427958325407</v>
+        <v>251.2407063421153</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -24297,13 +24299,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
-        <v>136.6555998253092</v>
+        <v>136.6416251260792</v>
       </c>
       <c r="H24" t="n">
-        <v>105.5916109993956</v>
+        <v>105.4566448252536</v>
       </c>
       <c r="I24" t="n">
-        <v>65.71175959472041</v>
+        <v>65.23061315193451</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -24330,16 +24332,16 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>57.4466155766215</v>
+        <v>56.57895837355435</v>
       </c>
       <c r="S24" t="n">
-        <v>158.905408270449</v>
+        <v>158.6458343615066</v>
       </c>
       <c r="T24" t="n">
-        <v>197.3919390740697</v>
+        <v>197.3356112293665</v>
       </c>
       <c r="U24" t="n">
-        <v>225.8961243613761</v>
+        <v>225.8952049732688</v>
       </c>
       <c r="V24" t="n">
         <v>232.8005871494253</v>
@@ -24376,16 +24378,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>167.4142525710033</v>
+        <v>167.4025366526095</v>
       </c>
       <c r="H25" t="n">
-        <v>157.0995470698808</v>
+        <v>156.9953819045248</v>
       </c>
       <c r="I25" t="n">
-        <v>138.1067275372333</v>
+        <v>137.7543979186262</v>
       </c>
       <c r="J25" t="n">
-        <v>52.58459624356988</v>
+        <v>51.75628081312638</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -24406,19 +24408,19 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>37.86903925848996</v>
+        <v>36.88799085553058</v>
       </c>
       <c r="R25" t="n">
-        <v>151.3616578248528</v>
+        <v>150.8348675305268</v>
       </c>
       <c r="S25" t="n">
-        <v>213.9658230228616</v>
+        <v>213.761646517762</v>
       </c>
       <c r="T25" t="n">
-        <v>225.481393154608</v>
+        <v>225.4313342305617</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2875715317206</v>
+        <v>286.2869324816264</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -24455,13 +24457,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>414.0170240739369</v>
+        <v>413.9909054436208</v>
       </c>
       <c r="H26" t="n">
-        <v>326.3074893360965</v>
+        <v>326.0400019133721</v>
       </c>
       <c r="I26" t="n">
-        <v>160.9084221286138</v>
+        <v>159.9014836333536</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24488,16 +24490,16 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>69.10542099048568</v>
+        <v>67.46474657889404</v>
       </c>
       <c r="S26" t="n">
-        <v>179.7218745449422</v>
+        <v>179.1266962566148</v>
       </c>
       <c r="T26" t="n">
-        <v>217.4676389752864</v>
+        <v>217.3533046710778</v>
       </c>
       <c r="U26" t="n">
-        <v>251.2427958325407</v>
+        <v>251.2407063421153</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -24534,13 +24536,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>136.6555998253092</v>
+        <v>136.6416251260792</v>
       </c>
       <c r="H27" t="n">
-        <v>105.5916109993956</v>
+        <v>105.4566448252536</v>
       </c>
       <c r="I27" t="n">
-        <v>65.71175959472041</v>
+        <v>65.23061315193451</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -24567,16 +24569,16 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>57.4466155766215</v>
+        <v>56.57895837355435</v>
       </c>
       <c r="S27" t="n">
-        <v>158.905408270449</v>
+        <v>158.6458343615066</v>
       </c>
       <c r="T27" t="n">
-        <v>197.3919390740697</v>
+        <v>197.3356112293665</v>
       </c>
       <c r="U27" t="n">
-        <v>225.8961243613761</v>
+        <v>225.8952049732688</v>
       </c>
       <c r="V27" t="n">
         <v>232.8005871494253</v>
@@ -24613,16 +24615,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>167.4142525710033</v>
+        <v>167.4025366526095</v>
       </c>
       <c r="H28" t="n">
-        <v>157.0995470698808</v>
+        <v>156.9953819045248</v>
       </c>
       <c r="I28" t="n">
-        <v>138.1067275372333</v>
+        <v>137.7543979186262</v>
       </c>
       <c r="J28" t="n">
-        <v>52.58459624356988</v>
+        <v>51.75628081312638</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -24643,19 +24645,19 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>37.86903925848996</v>
+        <v>36.88799085553058</v>
       </c>
       <c r="R28" t="n">
-        <v>151.3616578248528</v>
+        <v>150.8348675305268</v>
       </c>
       <c r="S28" t="n">
-        <v>213.9658230228616</v>
+        <v>213.761646517762</v>
       </c>
       <c r="T28" t="n">
-        <v>225.481393154608</v>
+        <v>225.4313342305617</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2875715317206</v>
+        <v>286.2869324816264</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -24692,13 +24694,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>414.0170240739369</v>
+        <v>413.9909054436208</v>
       </c>
       <c r="H29" t="n">
-        <v>326.3074893360965</v>
+        <v>326.0400019133721</v>
       </c>
       <c r="I29" t="n">
-        <v>160.9084221286138</v>
+        <v>159.9014836333536</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24725,16 +24727,16 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>69.10542099048568</v>
+        <v>67.46474657889404</v>
       </c>
       <c r="S29" t="n">
-        <v>179.7218745449422</v>
+        <v>179.1266962566148</v>
       </c>
       <c r="T29" t="n">
-        <v>217.4676389752864</v>
+        <v>217.3533046710778</v>
       </c>
       <c r="U29" t="n">
-        <v>251.2427958325407</v>
+        <v>251.2407063421153</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -24771,13 +24773,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
-        <v>136.6555998253092</v>
+        <v>136.6416251260792</v>
       </c>
       <c r="H30" t="n">
-        <v>105.5916109993956</v>
+        <v>105.4566448252536</v>
       </c>
       <c r="I30" t="n">
-        <v>65.71175959472041</v>
+        <v>65.23061315193451</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -24804,16 +24806,16 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>57.4466155766215</v>
+        <v>56.57895837355435</v>
       </c>
       <c r="S30" t="n">
-        <v>158.905408270449</v>
+        <v>158.6458343615066</v>
       </c>
       <c r="T30" t="n">
-        <v>197.3919390740697</v>
+        <v>197.3356112293665</v>
       </c>
       <c r="U30" t="n">
-        <v>225.8961243613761</v>
+        <v>225.8952049732688</v>
       </c>
       <c r="V30" t="n">
         <v>232.8005871494253</v>
@@ -24850,16 +24852,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>167.4142525710033</v>
+        <v>167.4025366526095</v>
       </c>
       <c r="H31" t="n">
-        <v>157.0995470698808</v>
+        <v>156.9953819045248</v>
       </c>
       <c r="I31" t="n">
-        <v>138.1067275372333</v>
+        <v>137.7543979186262</v>
       </c>
       <c r="J31" t="n">
-        <v>52.58459624356988</v>
+        <v>51.75628081312638</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -24880,19 +24882,19 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>37.86903925848996</v>
+        <v>36.88799085553058</v>
       </c>
       <c r="R31" t="n">
-        <v>151.3616578248528</v>
+        <v>150.8348675305268</v>
       </c>
       <c r="S31" t="n">
-        <v>213.9658230228616</v>
+        <v>213.761646517762</v>
       </c>
       <c r="T31" t="n">
-        <v>225.481393154608</v>
+        <v>225.4313342305617</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2875715317206</v>
+        <v>286.2869324816264</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -24929,13 +24931,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>414.0170240739369</v>
+        <v>413.9909054436208</v>
       </c>
       <c r="H32" t="n">
-        <v>326.3074893360965</v>
+        <v>326.0400019133721</v>
       </c>
       <c r="I32" t="n">
-        <v>160.9084221286138</v>
+        <v>159.9014836333536</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24962,16 +24964,16 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>69.10542099048568</v>
+        <v>67.46474657889404</v>
       </c>
       <c r="S32" t="n">
-        <v>179.7218745449422</v>
+        <v>179.1266962566148</v>
       </c>
       <c r="T32" t="n">
-        <v>217.4676389752864</v>
+        <v>217.3533046710778</v>
       </c>
       <c r="U32" t="n">
-        <v>251.2427958325407</v>
+        <v>251.2407063421153</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -25008,13 +25010,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
-        <v>136.6555998253092</v>
+        <v>136.6416251260792</v>
       </c>
       <c r="H33" t="n">
-        <v>105.5916109993956</v>
+        <v>105.4566448252536</v>
       </c>
       <c r="I33" t="n">
-        <v>65.71175959472041</v>
+        <v>65.23061315193451</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -25041,16 +25043,16 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>57.4466155766215</v>
+        <v>56.57895837355435</v>
       </c>
       <c r="S33" t="n">
-        <v>158.905408270449</v>
+        <v>158.6458343615066</v>
       </c>
       <c r="T33" t="n">
-        <v>197.3919390740697</v>
+        <v>197.3356112293665</v>
       </c>
       <c r="U33" t="n">
-        <v>225.8961243613761</v>
+        <v>225.8952049732688</v>
       </c>
       <c r="V33" t="n">
         <v>232.8005871494253</v>
@@ -25087,16 +25089,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>167.4142525710033</v>
+        <v>167.4025366526095</v>
       </c>
       <c r="H34" t="n">
-        <v>157.0995470698808</v>
+        <v>156.9953819045248</v>
       </c>
       <c r="I34" t="n">
-        <v>138.1067275372333</v>
+        <v>137.7543979186262</v>
       </c>
       <c r="J34" t="n">
-        <v>52.58459624356988</v>
+        <v>51.75628081312638</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -25117,19 +25119,19 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>37.86903925848996</v>
+        <v>36.88799085553058</v>
       </c>
       <c r="R34" t="n">
-        <v>151.3616578248528</v>
+        <v>150.8348675305268</v>
       </c>
       <c r="S34" t="n">
-        <v>213.9658230228616</v>
+        <v>213.761646517762</v>
       </c>
       <c r="T34" t="n">
-        <v>225.481393154608</v>
+        <v>225.4313342305617</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2875715317206</v>
+        <v>286.2869324816264</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -25166,13 +25168,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>414.0170240739369</v>
+        <v>413.9909054436208</v>
       </c>
       <c r="H35" t="n">
-        <v>326.3074893360965</v>
+        <v>326.0400019133721</v>
       </c>
       <c r="I35" t="n">
-        <v>160.9084221286138</v>
+        <v>159.9014836333536</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25199,16 +25201,16 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>69.10542099048568</v>
+        <v>67.46474657889404</v>
       </c>
       <c r="S35" t="n">
-        <v>179.7218745449422</v>
+        <v>179.1266962566148</v>
       </c>
       <c r="T35" t="n">
-        <v>217.4676389752864</v>
+        <v>217.3533046710778</v>
       </c>
       <c r="U35" t="n">
-        <v>251.2427958325407</v>
+        <v>251.2407063421153</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -25245,13 +25247,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>136.6555998253092</v>
+        <v>136.6416251260792</v>
       </c>
       <c r="H36" t="n">
-        <v>105.5916109993956</v>
+        <v>105.4566448252536</v>
       </c>
       <c r="I36" t="n">
-        <v>65.71175959472041</v>
+        <v>65.23061315193451</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -25278,16 +25280,16 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>57.4466155766215</v>
+        <v>56.57895837355435</v>
       </c>
       <c r="S36" t="n">
-        <v>158.905408270449</v>
+        <v>158.6458343615066</v>
       </c>
       <c r="T36" t="n">
-        <v>197.3919390740697</v>
+        <v>197.3356112293665</v>
       </c>
       <c r="U36" t="n">
-        <v>225.8961243613761</v>
+        <v>225.8952049732688</v>
       </c>
       <c r="V36" t="n">
         <v>232.8005871494253</v>
@@ -25324,16 +25326,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>167.4142525710033</v>
+        <v>167.4025366526095</v>
       </c>
       <c r="H37" t="n">
-        <v>157.0995470698808</v>
+        <v>156.9953819045248</v>
       </c>
       <c r="I37" t="n">
-        <v>138.1067275372333</v>
+        <v>137.7543979186262</v>
       </c>
       <c r="J37" t="n">
-        <v>52.58459624356988</v>
+        <v>51.75628081312638</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -25354,19 +25356,19 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>37.86903925848996</v>
+        <v>36.88799085553058</v>
       </c>
       <c r="R37" t="n">
-        <v>151.3616578248528</v>
+        <v>150.8348675305268</v>
       </c>
       <c r="S37" t="n">
-        <v>213.9658230228616</v>
+        <v>213.761646517762</v>
       </c>
       <c r="T37" t="n">
-        <v>225.481393154608</v>
+        <v>225.4313342305617</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2875715317206</v>
+        <v>286.2869324816264</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -25403,13 +25405,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>414.0170240739369</v>
+        <v>413.9909054436208</v>
       </c>
       <c r="H38" t="n">
-        <v>326.3074893360965</v>
+        <v>326.0400019133721</v>
       </c>
       <c r="I38" t="n">
-        <v>160.9084221286138</v>
+        <v>159.9014836333536</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25436,16 +25438,16 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>69.10542099048568</v>
+        <v>67.46474657889404</v>
       </c>
       <c r="S38" t="n">
-        <v>179.7218745449422</v>
+        <v>179.1266962566148</v>
       </c>
       <c r="T38" t="n">
-        <v>217.4676389752864</v>
+        <v>217.3533046710778</v>
       </c>
       <c r="U38" t="n">
-        <v>251.2427958325407</v>
+        <v>251.2407063421153</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -25482,13 +25484,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
-        <v>136.6555998253092</v>
+        <v>136.6416251260792</v>
       </c>
       <c r="H39" t="n">
-        <v>105.5916109993956</v>
+        <v>105.4566448252536</v>
       </c>
       <c r="I39" t="n">
-        <v>65.71175959472041</v>
+        <v>65.23061315193451</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -25515,16 +25517,16 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>57.4466155766215</v>
+        <v>56.57895837355435</v>
       </c>
       <c r="S39" t="n">
-        <v>158.905408270449</v>
+        <v>158.6458343615066</v>
       </c>
       <c r="T39" t="n">
-        <v>197.3919390740697</v>
+        <v>197.3356112293665</v>
       </c>
       <c r="U39" t="n">
-        <v>225.8961243613761</v>
+        <v>225.8952049732688</v>
       </c>
       <c r="V39" t="n">
         <v>232.8005871494253</v>
@@ -25561,16 +25563,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>167.4142525710033</v>
+        <v>167.4025366526095</v>
       </c>
       <c r="H40" t="n">
-        <v>157.0995470698808</v>
+        <v>156.9953819045248</v>
       </c>
       <c r="I40" t="n">
-        <v>138.1067275372333</v>
+        <v>137.7543979186262</v>
       </c>
       <c r="J40" t="n">
-        <v>52.58459624356988</v>
+        <v>51.75628081312638</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -25591,19 +25593,19 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>37.86903925848996</v>
+        <v>36.88799085553058</v>
       </c>
       <c r="R40" t="n">
-        <v>151.3616578248528</v>
+        <v>150.8348675305268</v>
       </c>
       <c r="S40" t="n">
-        <v>213.9658230228616</v>
+        <v>213.761646517762</v>
       </c>
       <c r="T40" t="n">
-        <v>225.481393154608</v>
+        <v>225.4313342305617</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2875715317206</v>
+        <v>286.2869324816264</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -25640,13 +25642,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>414.0170240739369</v>
+        <v>413.9909054436208</v>
       </c>
       <c r="H41" t="n">
-        <v>326.3074893360965</v>
+        <v>326.0400019133721</v>
       </c>
       <c r="I41" t="n">
-        <v>160.9084221286138</v>
+        <v>159.9014836333536</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25673,16 +25675,16 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>69.10542099048568</v>
+        <v>67.46474657889404</v>
       </c>
       <c r="S41" t="n">
-        <v>179.7218745449422</v>
+        <v>179.1266962566148</v>
       </c>
       <c r="T41" t="n">
-        <v>217.4676389752864</v>
+        <v>217.3533046710778</v>
       </c>
       <c r="U41" t="n">
-        <v>251.2427958325407</v>
+        <v>251.2407063421153</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -25719,13 +25721,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
-        <v>136.6555998253092</v>
+        <v>136.6416251260792</v>
       </c>
       <c r="H42" t="n">
-        <v>105.5916109993956</v>
+        <v>105.4566448252536</v>
       </c>
       <c r="I42" t="n">
-        <v>65.71175959472041</v>
+        <v>65.23061315193451</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -25752,16 +25754,16 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>57.4466155766215</v>
+        <v>56.57895837355435</v>
       </c>
       <c r="S42" t="n">
-        <v>158.905408270449</v>
+        <v>158.6458343615066</v>
       </c>
       <c r="T42" t="n">
-        <v>197.3919390740697</v>
+        <v>197.3356112293665</v>
       </c>
       <c r="U42" t="n">
-        <v>225.8961243613761</v>
+        <v>225.8952049732688</v>
       </c>
       <c r="V42" t="n">
         <v>232.8005871494253</v>
@@ -25798,16 +25800,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>167.4142525710033</v>
+        <v>167.4025366526095</v>
       </c>
       <c r="H43" t="n">
-        <v>157.0995470698808</v>
+        <v>156.9953819045248</v>
       </c>
       <c r="I43" t="n">
-        <v>138.1067275372333</v>
+        <v>137.7543979186262</v>
       </c>
       <c r="J43" t="n">
-        <v>52.58459624356988</v>
+        <v>51.75628081312638</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -25828,19 +25830,19 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>37.86903925848996</v>
+        <v>36.88799085553058</v>
       </c>
       <c r="R43" t="n">
-        <v>151.3616578248528</v>
+        <v>150.8348675305268</v>
       </c>
       <c r="S43" t="n">
-        <v>213.9658230228616</v>
+        <v>213.761646517762</v>
       </c>
       <c r="T43" t="n">
-        <v>225.481393154608</v>
+        <v>225.4313342305617</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2875715317206</v>
+        <v>286.2869324816264</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -25877,13 +25879,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>414.0170240739369</v>
+        <v>413.4631744246258</v>
       </c>
       <c r="H44" t="n">
-        <v>326.3074893360965</v>
+        <v>320.6353766150897</v>
       </c>
       <c r="I44" t="n">
-        <v>160.9084221286138</v>
+        <v>139.5561335235496</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25910,25 +25912,25 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>69.10542099048568</v>
+        <v>34.31466295695063</v>
       </c>
       <c r="S44" t="n">
-        <v>179.7218745449422</v>
+        <v>167.1010256612668</v>
       </c>
       <c r="T44" t="n">
-        <v>217.4676389752864</v>
+        <v>215.0431621354273</v>
       </c>
       <c r="U44" t="n">
-        <v>251.2427958325407</v>
+        <v>169.5792005267545</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>235.0873091810327</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>256.5760194283108</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>277.0661513893668</v>
       </c>
       <c r="Y44" t="n">
         <v>386.2379386560536</v>
@@ -25947,7 +25949,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
-        <v>147.4450655646388</v>
+        <v>54.78011627553656</v>
       </c>
       <c r="E45" t="n">
         <v>157.6450804554009</v>
@@ -25956,13 +25958,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>136.6555998253092</v>
+        <v>43.69431484884211</v>
       </c>
       <c r="H45" t="n">
-        <v>105.5916109993956</v>
+        <v>102.729632124056</v>
       </c>
       <c r="I45" t="n">
-        <v>65.71175959472041</v>
+        <v>55.50897386746508</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -25989,22 +25991,22 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>57.4466155766215</v>
+        <v>39.04780860145889</v>
       </c>
       <c r="S45" t="n">
-        <v>158.905408270449</v>
+        <v>153.4011028494393</v>
       </c>
       <c r="T45" t="n">
-        <v>197.3919390740697</v>
+        <v>196.197498299121</v>
       </c>
       <c r="U45" t="n">
-        <v>225.8961243613761</v>
+        <v>144.2573412586293</v>
       </c>
       <c r="V45" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W45" t="n">
-        <v>251.6949831609196</v>
+        <v>159.0300338718174</v>
       </c>
       <c r="X45" t="n">
         <v>205.7729852034775</v>
@@ -26023,7 +26025,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>74.58187180952564</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -26032,19 +26034,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>52.75609873382905</v>
       </c>
       <c r="G46" t="n">
-        <v>167.4142525710033</v>
+        <v>167.1658146852775</v>
       </c>
       <c r="H46" t="n">
-        <v>157.0995470698808</v>
+        <v>154.8907084131551</v>
       </c>
       <c r="I46" t="n">
-        <v>138.1067275372333</v>
+        <v>49.01623542174723</v>
       </c>
       <c r="J46" t="n">
-        <v>52.58459624356988</v>
+        <v>35.02003772275614</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -26065,25 +26067,25 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>37.86903925848996</v>
+        <v>17.06575411830539</v>
       </c>
       <c r="R46" t="n">
-        <v>151.3616578248528</v>
+        <v>140.1909870721275</v>
       </c>
       <c r="S46" t="n">
-        <v>213.9658230228616</v>
+        <v>209.6362282325312</v>
       </c>
       <c r="T46" t="n">
-        <v>225.481393154608</v>
+        <v>224.4198858246887</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2875715317206</v>
+        <v>286.2740203743174</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>193.8580490474888</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>354971.6240344157</v>
+        <v>360149.8085303454</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>354971.6240344157</v>
+        <v>361987.0690084685</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>354110.7419847519</v>
+        <v>354971.6240344157</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>352836.607399154</v>
+        <v>352819.8999250943</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>352836.607399154</v>
+        <v>352819.8999250943</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>352836.607399154</v>
+        <v>352819.8999250943</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>352836.607399154</v>
+        <v>352819.8999250943</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>352836.607399154</v>
+        <v>352819.8999250943</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>352836.607399154</v>
+        <v>352819.8999250943</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>352836.607399154</v>
+        <v>352819.8999250943</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>352836.607399154</v>
+        <v>352819.8999250943</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>352836.607399154</v>
+        <v>352819.8999250943</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>352836.607399154</v>
+        <v>352819.8999250943</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>352836.607399154</v>
+        <v>352819.8999250943</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>352836.607399154</v>
+        <v>435742.2269538844</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>75833.3562036838</v>
+        <v>69879.81359544017</v>
       </c>
       <c r="C2" t="n">
+        <v>70918.35331670486</v>
+      </c>
+      <c r="D2" t="n">
         <v>75833.35620368378</v>
       </c>
-      <c r="D2" t="n">
-        <v>76407.44210864043</v>
-      </c>
       <c r="E2" t="n">
-        <v>77709.90440324532</v>
+        <v>77853.26966504497</v>
       </c>
       <c r="F2" t="n">
-        <v>77709.90440324532</v>
+        <v>77853.26966504497</v>
       </c>
       <c r="G2" t="n">
-        <v>77709.90440324532</v>
+        <v>77853.26966504497</v>
       </c>
       <c r="H2" t="n">
-        <v>77709.90440324532</v>
+        <v>77853.26966504497</v>
       </c>
       <c r="I2" t="n">
-        <v>77709.90440324532</v>
+        <v>77853.26966504497</v>
       </c>
       <c r="J2" t="n">
-        <v>77709.90440324532</v>
+        <v>77853.26966504497</v>
       </c>
       <c r="K2" t="n">
-        <v>77709.90440324532</v>
+        <v>77853.26966504497</v>
       </c>
       <c r="L2" t="n">
-        <v>77709.90440324532</v>
+        <v>77853.26966504497</v>
       </c>
       <c r="M2" t="n">
-        <v>77709.90440324532</v>
+        <v>77853.26966504497</v>
       </c>
       <c r="N2" t="n">
-        <v>77709.90440324532</v>
+        <v>77853.26966504497</v>
       </c>
       <c r="O2" t="n">
-        <v>77709.90440324532</v>
+        <v>77853.26966504497</v>
       </c>
       <c r="P2" t="n">
-        <v>77709.90440324532</v>
+        <v>97813.67796401249</v>
       </c>
     </row>
     <row r="3">
@@ -26363,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>226237.0968787037</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>20956.03230135573</v>
       </c>
       <c r="D3" t="n">
-        <v>22280.77012981693</v>
+        <v>181359.9284513112</v>
       </c>
       <c r="E3" t="n">
-        <v>47420.72226727411</v>
+        <v>73542.05618995983</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26405,7 +26407,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>109275.8035220397</v>
       </c>
     </row>
     <row r="4">
@@ -26415,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>53753.7027657232</v>
+      </c>
+      <c r="C4" t="n">
+        <v>51037.36600445495</v>
+      </c>
+      <c r="D4" t="n">
         <v>22471.52375672497</v>
       </c>
-      <c r="C4" t="n">
-        <v>22471.52375672497</v>
-      </c>
-      <c r="D4" t="n">
-        <v>19093.49581609734</v>
-      </c>
       <c r="E4" t="n">
-        <v>12108.56501569322</v>
+        <v>11463.25600912726</v>
       </c>
       <c r="F4" t="n">
-        <v>12108.56501569322</v>
+        <v>11463.25600912726</v>
       </c>
       <c r="G4" t="n">
-        <v>12108.56501569322</v>
+        <v>11463.25600912726</v>
       </c>
       <c r="H4" t="n">
-        <v>12108.56501569322</v>
+        <v>11463.25600912726</v>
       </c>
       <c r="I4" t="n">
-        <v>12108.56501569322</v>
+        <v>11463.25600912726</v>
       </c>
       <c r="J4" t="n">
-        <v>12108.56501569322</v>
+        <v>11463.25600912726</v>
       </c>
       <c r="K4" t="n">
-        <v>12108.56501569322</v>
+        <v>11463.25600912726</v>
       </c>
       <c r="L4" t="n">
-        <v>12108.56501569322</v>
+        <v>11463.25600912726</v>
       </c>
       <c r="M4" t="n">
-        <v>12108.56501569322</v>
+        <v>11463.25600912726</v>
       </c>
       <c r="N4" t="n">
-        <v>12108.56501569322</v>
+        <v>11463.25600912726</v>
       </c>
       <c r="O4" t="n">
-        <v>12108.56501569322</v>
+        <v>11463.25600912726</v>
       </c>
       <c r="P4" t="n">
-        <v>12108.56501569322</v>
+        <v>6947.224278237718</v>
       </c>
     </row>
     <row r="5">
@@ -26467,49 +26469,49 @@
         </is>
       </c>
       <c r="B5" t="n">
+        <v>33627.6</v>
+      </c>
+      <c r="C5" t="n">
+        <v>34129.29174257201</v>
+      </c>
+      <c r="D5" t="n">
         <v>38745.80483114667</v>
       </c>
-      <c r="C5" t="n">
-        <v>38745.80483114667</v>
-      </c>
-      <c r="D5" t="n">
-        <v>39312.96135688073</v>
-      </c>
       <c r="E5" t="n">
-        <v>6972.102563257328</v>
+        <v>7113.737365803781</v>
       </c>
       <c r="F5" t="n">
-        <v>6972.102563257328</v>
+        <v>7113.737365803781</v>
       </c>
       <c r="G5" t="n">
-        <v>6972.102563257328</v>
+        <v>7113.737365803781</v>
       </c>
       <c r="H5" t="n">
-        <v>6972.102563257328</v>
+        <v>7113.737365803781</v>
       </c>
       <c r="I5" t="n">
-        <v>6972.102563257328</v>
+        <v>7113.737365803781</v>
       </c>
       <c r="J5" t="n">
-        <v>6972.102563257328</v>
+        <v>7113.737365803781</v>
       </c>
       <c r="K5" t="n">
-        <v>6972.102563257328</v>
+        <v>7113.737365803781</v>
       </c>
       <c r="L5" t="n">
-        <v>6972.102563257328</v>
+        <v>7113.737365803781</v>
       </c>
       <c r="M5" t="n">
-        <v>6972.102563257328</v>
+        <v>7113.737365803781</v>
       </c>
       <c r="N5" t="n">
-        <v>6972.102563257328</v>
+        <v>7113.737365803781</v>
       </c>
       <c r="O5" t="n">
-        <v>6972.102563257328</v>
+        <v>7113.737365803781</v>
       </c>
       <c r="P5" t="n">
-        <v>6972.102563257328</v>
+        <v>15609.51966583622</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-211621.0692628915</v>
+        <v>-17501.48917028304</v>
       </c>
       <c r="C6" t="n">
-        <v>14616.02761581214</v>
+        <v>-35204.33673167782</v>
       </c>
       <c r="D6" t="n">
-        <v>-4279.785194154567</v>
+        <v>-166743.9008354991</v>
       </c>
       <c r="E6" t="n">
-        <v>11208.51455702067</v>
+        <v>-14265.77989984591</v>
       </c>
       <c r="F6" t="n">
-        <v>58629.23682429479</v>
+        <v>59276.27629011392</v>
       </c>
       <c r="G6" t="n">
-        <v>58629.23682429479</v>
+        <v>59276.27629011392</v>
       </c>
       <c r="H6" t="n">
-        <v>58629.23682429479</v>
+        <v>59276.27629011392</v>
       </c>
       <c r="I6" t="n">
-        <v>58629.23682429479</v>
+        <v>59276.27629011392</v>
       </c>
       <c r="J6" t="n">
-        <v>58629.23682429479</v>
+        <v>59276.27629011392</v>
       </c>
       <c r="K6" t="n">
-        <v>58629.23682429479</v>
+        <v>59276.27629011392</v>
       </c>
       <c r="L6" t="n">
-        <v>58629.23682429479</v>
+        <v>59276.27629011392</v>
       </c>
       <c r="M6" t="n">
-        <v>58629.23682429479</v>
+        <v>59276.27629011392</v>
       </c>
       <c r="N6" t="n">
-        <v>58629.23682429479</v>
+        <v>59276.27629011392</v>
       </c>
       <c r="O6" t="n">
-        <v>58629.23682429479</v>
+        <v>59276.27629011392</v>
       </c>
       <c r="P6" t="n">
-        <v>58629.23682429479</v>
+        <v>-34018.86950210112</v>
       </c>
     </row>
   </sheetData>
@@ -26735,49 +26737,49 @@
         </is>
       </c>
       <c r="B3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>23.01338268678932</v>
+      </c>
+      <c r="D3" t="n">
         <v>234.7800381259942</v>
       </c>
-      <c r="C3" t="n">
-        <v>234.7800381259942</v>
-      </c>
-      <c r="D3" t="n">
-        <v>260.7963925174648</v>
-      </c>
       <c r="E3" t="n">
-        <v>319.8212184980426</v>
+        <v>326.3182277891643</v>
       </c>
       <c r="F3" t="n">
-        <v>319.8212184980426</v>
+        <v>326.3182277891643</v>
       </c>
       <c r="G3" t="n">
-        <v>319.8212184980426</v>
+        <v>326.3182277891643</v>
       </c>
       <c r="H3" t="n">
-        <v>319.8212184980426</v>
+        <v>326.3182277891643</v>
       </c>
       <c r="I3" t="n">
-        <v>319.8212184980426</v>
+        <v>326.3182277891643</v>
       </c>
       <c r="J3" t="n">
-        <v>319.8212184980426</v>
+        <v>326.3182277891643</v>
       </c>
       <c r="K3" t="n">
-        <v>319.8212184980426</v>
+        <v>326.3182277891643</v>
       </c>
       <c r="L3" t="n">
-        <v>319.8212184980426</v>
+        <v>326.3182277891643</v>
       </c>
       <c r="M3" t="n">
-        <v>319.8212184980426</v>
+        <v>326.3182277891643</v>
       </c>
       <c r="N3" t="n">
-        <v>319.8212184980426</v>
+        <v>326.3182277891643</v>
       </c>
       <c r="O3" t="n">
-        <v>319.8212184980426</v>
+        <v>326.3182277891643</v>
       </c>
       <c r="P3" t="n">
-        <v>319.8212184980426</v>
+        <v>457.5913187641655</v>
       </c>
     </row>
     <row r="4">
@@ -26829,7 +26831,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>92.6649492891022</v>
       </c>
     </row>
   </sheetData>
@@ -26957,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>234.7800381259942</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>23.01338268678932</v>
       </c>
       <c r="D3" t="n">
-        <v>26.01635439147063</v>
+        <v>211.7666554392049</v>
       </c>
       <c r="E3" t="n">
-        <v>59.02482598057776</v>
+        <v>91.53818966317007</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26999,7 +27001,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>131.2730909750013</v>
       </c>
     </row>
     <row r="4">
@@ -27051,7 +27053,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>92.6649492891022</v>
       </c>
     </row>
   </sheetData>
@@ -31039,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0.9438393492502272</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>9.666094735508892</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>36.38736651196942</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>80.10718496842655</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>120.0599046221887</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>148.9449281068054</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>165.7299311340341</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>168.4116146850913</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>159.0263121559843</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>135.7252782213693</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>101.9240315263455</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>59.28844852233964</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>21.50773917103957</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>4.131656751342871</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0.07550714794001816</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.5049985725728932</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>4.877223056164522</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>17.38701225744391</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>47.71129057803813</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>81.54619494042197</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>109.6489225228995</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>127.9551207786668</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>131.3417120833333</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>120.1520068700076</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>96.43257830122204</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>64.4626248077258</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>31.35420961992052</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>9.380126994939479</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>2.035498632431968</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>0.03322359030084825</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.423373839243596</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>3.764178316183975</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>12.73200600198015</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>29.93253043452224</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>49.18834241393778</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>62.94414333627064</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>66.36577372797568</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>64.78774396352233</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>59.84196775054031</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>51.20514142997091</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>35.45178575702513</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>19.03642735362569</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>7.378251362090667</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>1.808960949495364</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0.02309311850419617</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0.9438393492502272</v>
+        <v>0.09251611130367558</v>
       </c>
       <c r="H5" t="n">
-        <v>9.666094735508892</v>
+        <v>0.9474806248887679</v>
       </c>
       <c r="I5" t="n">
-        <v>36.38736651196942</v>
+        <v>3.566727381034957</v>
       </c>
       <c r="J5" t="n">
-        <v>80.10718496842655</v>
+        <v>7.852189301760344</v>
       </c>
       <c r="K5" t="n">
-        <v>120.0599046221887</v>
+        <v>11.76839629324494</v>
       </c>
       <c r="L5" t="n">
-        <v>148.9449281068054</v>
+        <v>14.5997362345548</v>
       </c>
       <c r="M5" t="n">
-        <v>165.7299311340341</v>
+        <v>16.24501962895154</v>
       </c>
       <c r="N5" t="n">
-        <v>168.4116146850913</v>
+        <v>16.50788103019311</v>
       </c>
       <c r="O5" t="n">
-        <v>159.0263121559843</v>
+        <v>15.58792394841718</v>
       </c>
       <c r="P5" t="n">
-        <v>135.7252782213693</v>
+        <v>13.30393245060769</v>
       </c>
       <c r="Q5" t="n">
-        <v>101.9240315263455</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
-        <v>59.28844852233964</v>
+        <v>5.811515176679516</v>
       </c>
       <c r="S5" t="n">
-        <v>21.50773917103957</v>
+        <v>2.108210886332509</v>
       </c>
       <c r="T5" t="n">
-        <v>4.131656751342871</v>
+        <v>0.4049892772318401</v>
       </c>
       <c r="U5" t="n">
-        <v>0.07550714794001816</v>
+        <v>0.007401288904294046</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.5049985725728932</v>
+        <v>0.0495004835149808</v>
       </c>
       <c r="H6" t="n">
-        <v>4.877223056164522</v>
+        <v>0.4780704592104726</v>
       </c>
       <c r="I6" t="n">
-        <v>17.38701225744391</v>
+        <v>1.704292963125436</v>
       </c>
       <c r="J6" t="n">
-        <v>47.71129057803813</v>
+        <v>4.676710155246499</v>
       </c>
       <c r="K6" t="n">
-        <v>81.54619494042197</v>
+        <v>7.993242550750212</v>
       </c>
       <c r="L6" t="n">
-        <v>109.6489225228995</v>
+        <v>10.74790103688213</v>
       </c>
       <c r="M6" t="n">
-        <v>127.9551207786668</v>
+        <v>12.54229356430018</v>
       </c>
       <c r="N6" t="n">
-        <v>131.3417120833333</v>
+        <v>12.87425075418792</v>
       </c>
       <c r="O6" t="n">
-        <v>120.1520068700076</v>
+        <v>11.77742425104019</v>
       </c>
       <c r="P6" t="n">
-        <v>96.43257830122204</v>
+        <v>9.452421277522957</v>
       </c>
       <c r="Q6" t="n">
-        <v>64.4626248077258</v>
+        <v>6.318693299210532</v>
       </c>
       <c r="R6" t="n">
-        <v>31.35420961992052</v>
+        <v>3.073372125605564</v>
       </c>
       <c r="S6" t="n">
-        <v>9.380126994939479</v>
+        <v>0.9194497705523841</v>
       </c>
       <c r="T6" t="n">
-        <v>2.035498632431968</v>
+        <v>0.1995216857467866</v>
       </c>
       <c r="U6" t="n">
-        <v>0.03322359030084825</v>
+        <v>0.003256610757564528</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.423373839243596</v>
+        <v>0.04149954254994795</v>
       </c>
       <c r="H7" t="n">
-        <v>3.764178316183975</v>
+        <v>0.3689686601259011</v>
       </c>
       <c r="I7" t="n">
-        <v>12.73200600198015</v>
+        <v>1.248004425047526</v>
       </c>
       <c r="J7" t="n">
-        <v>29.93253043452224</v>
+        <v>2.93401765828132</v>
       </c>
       <c r="K7" t="n">
-        <v>49.18834241393778</v>
+        <v>4.821492307166679</v>
       </c>
       <c r="L7" t="n">
-        <v>62.94414333627064</v>
+        <v>6.169850171471354</v>
       </c>
       <c r="M7" t="n">
-        <v>66.36577372797568</v>
+        <v>6.505241928988658</v>
       </c>
       <c r="N7" t="n">
-        <v>64.78774396352233</v>
+        <v>6.350561815847949</v>
       </c>
       <c r="O7" t="n">
-        <v>59.84196775054031</v>
+        <v>5.865771705150827</v>
       </c>
       <c r="P7" t="n">
-        <v>51.20514142997091</v>
+        <v>5.019181037131885</v>
       </c>
       <c r="Q7" t="n">
-        <v>35.45178575702513</v>
+        <v>3.475020785705187</v>
       </c>
       <c r="R7" t="n">
-        <v>19.03642735362569</v>
+        <v>1.865970340473114</v>
       </c>
       <c r="S7" t="n">
-        <v>7.378251362090667</v>
+        <v>0.7232238460750018</v>
       </c>
       <c r="T7" t="n">
-        <v>1.808960949495364</v>
+        <v>0.1773162272588684</v>
       </c>
       <c r="U7" t="n">
-        <v>0.02309311850419617</v>
+        <v>0.002263611411815345</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.048427708612923</v>
+        <v>0.9438393492502272</v>
       </c>
       <c r="H8" t="n">
-        <v>10.7372102708321</v>
+        <v>9.666094735508892</v>
       </c>
       <c r="I8" t="n">
-        <v>40.41950923629976</v>
+        <v>36.38736651196942</v>
       </c>
       <c r="J8" t="n">
-        <v>88.98399123388617</v>
+        <v>80.10718496842655</v>
       </c>
       <c r="K8" t="n">
-        <v>133.3639361394712</v>
+        <v>120.0599046221887</v>
       </c>
       <c r="L8" t="n">
-        <v>165.449755626934</v>
+        <v>148.9449281068054</v>
       </c>
       <c r="M8" t="n">
-        <v>184.0947318899791</v>
+        <v>165.7299311340341</v>
       </c>
       <c r="N8" t="n">
-        <v>187.0735771170756</v>
+        <v>168.4116146850913</v>
       </c>
       <c r="O8" t="n">
-        <v>176.6482740895558</v>
+        <v>159.0263121559843</v>
       </c>
       <c r="P8" t="n">
-        <v>150.7652150331742</v>
+        <v>135.7252782213693</v>
       </c>
       <c r="Q8" t="n">
-        <v>113.2183977184739</v>
+        <v>101.9240315263455</v>
       </c>
       <c r="R8" t="n">
-        <v>65.8582970511566</v>
+        <v>59.28844852233964</v>
       </c>
       <c r="S8" t="n">
-        <v>23.89104641001701</v>
+        <v>21.50773917103957</v>
       </c>
       <c r="T8" t="n">
-        <v>4.589492294453073</v>
+        <v>4.131656751342871</v>
       </c>
       <c r="U8" t="n">
-        <v>0.08387421668903385</v>
+        <v>0.07550714794001816</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.560958278245113</v>
+        <v>0.5049985725728932</v>
       </c>
       <c r="H9" t="n">
-        <v>5.417676003051488</v>
+        <v>4.877223056164522</v>
       </c>
       <c r="I9" t="n">
-        <v>19.31369510624622</v>
+        <v>17.38701225744391</v>
       </c>
       <c r="J9" t="n">
-        <v>52.99825557753501</v>
+        <v>47.71129057803813</v>
       </c>
       <c r="K9" t="n">
-        <v>90.58246021995758</v>
+        <v>81.54619494042197</v>
       </c>
       <c r="L9" t="n">
-        <v>121.799296335633</v>
+        <v>109.6489225228995</v>
       </c>
       <c r="M9" t="n">
-        <v>142.1340339220183</v>
+        <v>127.9551207786668</v>
       </c>
       <c r="N9" t="n">
         <v>131.3417120833333</v>
       </c>
       <c r="O9" t="n">
-        <v>133.4662443858011</v>
+        <v>120.1520068700076</v>
       </c>
       <c r="P9" t="n">
-        <v>107.1184277115602</v>
+        <v>96.43257830122204</v>
       </c>
       <c r="Q9" t="n">
-        <v>71.60583214932356</v>
+        <v>64.4626248077258</v>
       </c>
       <c r="R9" t="n">
-        <v>34.82862011770975</v>
+        <v>31.35420961992052</v>
       </c>
       <c r="S9" t="n">
-        <v>10.41955398407041</v>
+        <v>9.380126994939479</v>
       </c>
       <c r="T9" t="n">
-        <v>2.261055516259907</v>
+        <v>2.035498632431968</v>
       </c>
       <c r="U9" t="n">
-        <v>0.03690514988454693</v>
+        <v>0.03322359030084825</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.4702885766708382</v>
+        <v>0.423373839243596</v>
       </c>
       <c r="H10" t="n">
-        <v>4.181292981673455</v>
+        <v>3.764178316183975</v>
       </c>
       <c r="I10" t="n">
-        <v>14.14286010570121</v>
+        <v>12.73200600198015</v>
       </c>
       <c r="J10" t="n">
-        <v>33.24940237062826</v>
+        <v>29.93253043452224</v>
       </c>
       <c r="K10" t="n">
-        <v>54.63898190775737</v>
+        <v>49.18834241393778</v>
       </c>
       <c r="L10" t="n">
-        <v>69.91908529886263</v>
+        <v>62.94414333627064</v>
       </c>
       <c r="M10" t="n">
-        <v>73.71987206850237</v>
+        <v>66.36577372797568</v>
       </c>
       <c r="N10" t="n">
-        <v>71.96697828272931</v>
+        <v>64.78774396352233</v>
       </c>
       <c r="O10" t="n">
-        <v>66.47315263707451</v>
+        <v>59.84196775054031</v>
       </c>
       <c r="P10" t="n">
-        <v>56.87926567298936</v>
+        <v>51.20514142997091</v>
       </c>
       <c r="Q10" t="n">
-        <v>39.38025527013719</v>
+        <v>35.45178575702513</v>
       </c>
       <c r="R10" t="n">
-        <v>21.14588454739968</v>
+        <v>19.03642735362569</v>
       </c>
       <c r="S10" t="n">
-        <v>8.195847286163604</v>
+        <v>7.378251362090667</v>
       </c>
       <c r="T10" t="n">
-        <v>2.009414827593581</v>
+        <v>1.808960949495364</v>
       </c>
       <c r="U10" t="n">
-        <v>0.02565210418204575</v>
+        <v>0.02309311850419617</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>1.28571344119816</v>
+        <v>1.311832071514227</v>
       </c>
       <c r="H11" t="n">
-        <v>13.16731277967066</v>
+        <v>13.43480020239508</v>
       </c>
       <c r="I11" t="n">
-        <v>49.56746744179212</v>
+        <v>50.57440593705229</v>
       </c>
       <c r="J11" t="n">
-        <v>109.1233211798924</v>
+        <v>111.3401072796808</v>
       </c>
       <c r="K11" t="n">
-        <v>163.5475711458106</v>
+        <v>166.869958866878</v>
       </c>
       <c r="L11" t="n">
-        <v>202.8952238718788</v>
+        <v>207.0169396254816</v>
       </c>
       <c r="M11" t="n">
-        <v>225.7600302817866</v>
+        <v>230.3462332272727</v>
       </c>
       <c r="N11" t="n">
         <v>229.4130635965909</v>
       </c>
       <c r="O11" t="n">
-        <v>216.6282505656767</v>
+        <v>221.0289459393429</v>
       </c>
       <c r="P11" t="n">
-        <v>184.8871999860971</v>
+        <v>188.6430916738354</v>
       </c>
       <c r="Q11" t="n">
-        <v>138.8425873731879</v>
+        <v>141.6631056127321</v>
       </c>
       <c r="R11" t="n">
-        <v>80.763696950664</v>
+        <v>82.40437136225565</v>
       </c>
       <c r="S11" t="n">
-        <v>29.2981950413031</v>
+        <v>29.89337332963048</v>
       </c>
       <c r="T11" t="n">
-        <v>5.628210588844949</v>
+        <v>5.742544893053533</v>
       </c>
       <c r="U11" t="n">
-        <v>0.1028570752958528</v>
+        <v>0.1049465657211382</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,19 +31831,19 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.6879173379014502</v>
+        <v>0.7018920371314099</v>
       </c>
       <c r="H12" t="n">
-        <v>6.643833237100848</v>
+        <v>6.778799411242828</v>
       </c>
       <c r="I12" t="n">
-        <v>23.68487325669467</v>
+        <v>24.16601969948056</v>
       </c>
       <c r="J12" t="n">
-        <v>64.99310252515411</v>
+        <v>66.31340513968291</v>
       </c>
       <c r="K12" t="n">
-        <v>111.0835641645513</v>
+        <v>113.3401716274874</v>
       </c>
       <c r="L12" t="n">
         <v>138.5543797798742</v>
@@ -31856,22 +31858,22 @@
         <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
-        <v>131.3620397261111</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>87.8120447468588</v>
+        <v>89.59590284505508</v>
       </c>
       <c r="R12" t="n">
-        <v>42.71121857602163</v>
+        <v>43.57887577908878</v>
       </c>
       <c r="S12" t="n">
-        <v>12.77776283338877</v>
+        <v>13.03733674233122</v>
       </c>
       <c r="T12" t="n">
-        <v>2.772789620751896</v>
+        <v>2.829117465455112</v>
       </c>
       <c r="U12" t="n">
-        <v>0.04525771959877963</v>
+        <v>0.04617710770601383</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.5767267874554866</v>
+        <v>0.5884427058493126</v>
       </c>
       <c r="H13" t="n">
-        <v>5.127625437558784</v>
+        <v>5.231790602914801</v>
       </c>
       <c r="I13" t="n">
-        <v>17.343747390025</v>
+        <v>17.69607700863206</v>
       </c>
       <c r="J13" t="n">
-        <v>40.7745838731029</v>
+        <v>41.60289930354639</v>
       </c>
       <c r="K13" t="n">
-        <v>67.00516676073742</v>
+        <v>68.36634346140194</v>
       </c>
       <c r="L13" t="n">
-        <v>85.74354438224572</v>
+        <v>87.48538192236053</v>
       </c>
       <c r="M13" t="n">
-        <v>90.40454541904504</v>
+        <v>92.24106888145177</v>
       </c>
       <c r="N13" t="n">
-        <v>88.25492739307465</v>
+        <v>90.04778243237713</v>
       </c>
       <c r="O13" t="n">
-        <v>81.51770992143553</v>
+        <v>83.17370173222832</v>
       </c>
       <c r="P13" t="n">
-        <v>69.75248345734354</v>
+        <v>71.16947053290228</v>
       </c>
       <c r="Q13" t="n">
-        <v>48.29300399320443</v>
+        <v>49.2740523961638</v>
       </c>
       <c r="R13" t="n">
-        <v>25.93173355231669</v>
+        <v>26.45852384664272</v>
       </c>
       <c r="S13" t="n">
-        <v>10.05077501411061</v>
+        <v>10.25495151921029</v>
       </c>
       <c r="T13" t="n">
-        <v>2.464196273673442</v>
+        <v>2.514255197719789</v>
       </c>
       <c r="U13" t="n">
-        <v>0.03145782477029931</v>
+        <v>0.032096874864508</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1.28571344119816</v>
+        <v>1.311832071514227</v>
       </c>
       <c r="H14" t="n">
-        <v>13.16731277967066</v>
+        <v>13.43480020239508</v>
       </c>
       <c r="I14" t="n">
-        <v>49.56746744179212</v>
+        <v>50.57440593705229</v>
       </c>
       <c r="J14" t="n">
-        <v>109.1233211798924</v>
+        <v>111.3401072796808</v>
       </c>
       <c r="K14" t="n">
-        <v>163.5475711458106</v>
+        <v>166.869958866878</v>
       </c>
       <c r="L14" t="n">
-        <v>202.8952238718788</v>
+        <v>207.0169396254816</v>
       </c>
       <c r="M14" t="n">
-        <v>225.7600302817866</v>
+        <v>230.3462332272727</v>
       </c>
       <c r="N14" t="n">
         <v>229.4130635965909</v>
       </c>
       <c r="O14" t="n">
-        <v>216.6282505656767</v>
+        <v>221.0289459393429</v>
       </c>
       <c r="P14" t="n">
-        <v>184.8871999860971</v>
+        <v>188.6430916738354</v>
       </c>
       <c r="Q14" t="n">
-        <v>138.8425873731879</v>
+        <v>141.6631056127321</v>
       </c>
       <c r="R14" t="n">
-        <v>80.763696950664</v>
+        <v>82.40437136225565</v>
       </c>
       <c r="S14" t="n">
-        <v>29.2981950413031</v>
+        <v>29.89337332963048</v>
       </c>
       <c r="T14" t="n">
-        <v>5.628210588844949</v>
+        <v>5.742544893053533</v>
       </c>
       <c r="U14" t="n">
-        <v>0.1028570752958528</v>
+        <v>0.1049465657211382</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,19 +32068,19 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.6879173379014502</v>
+        <v>0.7018920371314099</v>
       </c>
       <c r="H15" t="n">
-        <v>6.643833237100848</v>
+        <v>6.778799411242828</v>
       </c>
       <c r="I15" t="n">
-        <v>23.68487325669467</v>
+        <v>24.16601969948056</v>
       </c>
       <c r="J15" t="n">
-        <v>64.99310252515411</v>
+        <v>66.31340513968291</v>
       </c>
       <c r="K15" t="n">
-        <v>111.0835641645513</v>
+        <v>113.3401716274874</v>
       </c>
       <c r="L15" t="n">
         <v>138.5543797798742</v>
@@ -32093,22 +32095,22 @@
         <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
-        <v>131.3620397261111</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>87.8120447468588</v>
+        <v>89.59590284505508</v>
       </c>
       <c r="R15" t="n">
-        <v>42.71121857602163</v>
+        <v>43.57887577908878</v>
       </c>
       <c r="S15" t="n">
-        <v>12.77776283338877</v>
+        <v>13.03733674233122</v>
       </c>
       <c r="T15" t="n">
-        <v>2.772789620751896</v>
+        <v>2.829117465455112</v>
       </c>
       <c r="U15" t="n">
-        <v>0.04525771959877963</v>
+        <v>0.04617710770601383</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.5767267874554866</v>
+        <v>0.5884427058493126</v>
       </c>
       <c r="H16" t="n">
-        <v>5.127625437558784</v>
+        <v>5.231790602914801</v>
       </c>
       <c r="I16" t="n">
-        <v>17.343747390025</v>
+        <v>17.69607700863206</v>
       </c>
       <c r="J16" t="n">
-        <v>40.7745838731029</v>
+        <v>41.60289930354639</v>
       </c>
       <c r="K16" t="n">
-        <v>67.00516676073742</v>
+        <v>68.36634346140194</v>
       </c>
       <c r="L16" t="n">
-        <v>85.74354438224572</v>
+        <v>87.48538192236053</v>
       </c>
       <c r="M16" t="n">
-        <v>90.40454541904504</v>
+        <v>92.24106888145177</v>
       </c>
       <c r="N16" t="n">
-        <v>88.25492739307465</v>
+        <v>90.04778243237713</v>
       </c>
       <c r="O16" t="n">
-        <v>81.51770992143553</v>
+        <v>83.17370173222832</v>
       </c>
       <c r="P16" t="n">
-        <v>69.75248345734354</v>
+        <v>71.16947053290228</v>
       </c>
       <c r="Q16" t="n">
-        <v>48.29300399320443</v>
+        <v>49.2740523961638</v>
       </c>
       <c r="R16" t="n">
-        <v>25.93173355231669</v>
+        <v>26.45852384664272</v>
       </c>
       <c r="S16" t="n">
-        <v>10.05077501411061</v>
+        <v>10.25495151921029</v>
       </c>
       <c r="T16" t="n">
-        <v>2.464196273673442</v>
+        <v>2.514255197719789</v>
       </c>
       <c r="U16" t="n">
-        <v>0.03145782477029931</v>
+        <v>0.032096874864508</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>1.28571344119816</v>
+        <v>1.311832071514227</v>
       </c>
       <c r="H17" t="n">
-        <v>13.16731277967066</v>
+        <v>13.43480020239508</v>
       </c>
       <c r="I17" t="n">
-        <v>49.56746744179212</v>
+        <v>50.57440593705229</v>
       </c>
       <c r="J17" t="n">
-        <v>109.1233211798924</v>
+        <v>111.3401072796808</v>
       </c>
       <c r="K17" t="n">
-        <v>163.5475711458106</v>
+        <v>166.869958866878</v>
       </c>
       <c r="L17" t="n">
-        <v>202.8952238718788</v>
+        <v>207.0169396254816</v>
       </c>
       <c r="M17" t="n">
-        <v>225.7600302817866</v>
+        <v>230.3462332272727</v>
       </c>
       <c r="N17" t="n">
         <v>229.4130635965909</v>
       </c>
       <c r="O17" t="n">
-        <v>216.6282505656767</v>
+        <v>221.0289459393429</v>
       </c>
       <c r="P17" t="n">
-        <v>184.8871999860971</v>
+        <v>188.6430916738354</v>
       </c>
       <c r="Q17" t="n">
-        <v>138.8425873731879</v>
+        <v>141.6631056127321</v>
       </c>
       <c r="R17" t="n">
-        <v>80.763696950664</v>
+        <v>82.40437136225565</v>
       </c>
       <c r="S17" t="n">
-        <v>29.2981950413031</v>
+        <v>29.89337332963048</v>
       </c>
       <c r="T17" t="n">
-        <v>5.628210588844949</v>
+        <v>5.742544893053533</v>
       </c>
       <c r="U17" t="n">
-        <v>0.1028570752958528</v>
+        <v>0.1049465657211382</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,19 +32305,19 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.6879173379014502</v>
+        <v>0.7018920371314099</v>
       </c>
       <c r="H18" t="n">
-        <v>6.643833237100848</v>
+        <v>6.778799411242828</v>
       </c>
       <c r="I18" t="n">
-        <v>23.68487325669467</v>
+        <v>24.16601969948056</v>
       </c>
       <c r="J18" t="n">
-        <v>64.99310252515411</v>
+        <v>66.31340513968291</v>
       </c>
       <c r="K18" t="n">
-        <v>111.0835641645513</v>
+        <v>113.3401716274874</v>
       </c>
       <c r="L18" t="n">
         <v>138.5543797798742</v>
@@ -32330,22 +32332,22 @@
         <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>131.3620397261111</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>87.8120447468588</v>
+        <v>89.59590284505508</v>
       </c>
       <c r="R18" t="n">
-        <v>42.71121857602163</v>
+        <v>43.57887577908878</v>
       </c>
       <c r="S18" t="n">
-        <v>12.77776283338877</v>
+        <v>13.03733674233122</v>
       </c>
       <c r="T18" t="n">
-        <v>2.772789620751896</v>
+        <v>2.829117465455112</v>
       </c>
       <c r="U18" t="n">
-        <v>0.04525771959877963</v>
+        <v>0.04617710770601383</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.5767267874554866</v>
+        <v>0.5884427058493126</v>
       </c>
       <c r="H19" t="n">
-        <v>5.127625437558784</v>
+        <v>5.231790602914801</v>
       </c>
       <c r="I19" t="n">
-        <v>17.343747390025</v>
+        <v>17.69607700863206</v>
       </c>
       <c r="J19" t="n">
-        <v>40.7745838731029</v>
+        <v>41.60289930354639</v>
       </c>
       <c r="K19" t="n">
-        <v>67.00516676073742</v>
+        <v>68.36634346140194</v>
       </c>
       <c r="L19" t="n">
-        <v>85.74354438224572</v>
+        <v>87.48538192236053</v>
       </c>
       <c r="M19" t="n">
-        <v>90.40454541904504</v>
+        <v>92.24106888145177</v>
       </c>
       <c r="N19" t="n">
-        <v>88.25492739307465</v>
+        <v>90.04778243237713</v>
       </c>
       <c r="O19" t="n">
-        <v>81.51770992143553</v>
+        <v>83.17370173222832</v>
       </c>
       <c r="P19" t="n">
-        <v>69.75248345734354</v>
+        <v>71.16947053290228</v>
       </c>
       <c r="Q19" t="n">
-        <v>48.29300399320443</v>
+        <v>49.2740523961638</v>
       </c>
       <c r="R19" t="n">
-        <v>25.93173355231669</v>
+        <v>26.45852384664272</v>
       </c>
       <c r="S19" t="n">
-        <v>10.05077501411061</v>
+        <v>10.25495151921029</v>
       </c>
       <c r="T19" t="n">
-        <v>2.464196273673442</v>
+        <v>2.514255197719789</v>
       </c>
       <c r="U19" t="n">
-        <v>0.03145782477029931</v>
+        <v>0.032096874864508</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>1.28571344119816</v>
+        <v>1.311832071514227</v>
       </c>
       <c r="H20" t="n">
-        <v>13.16731277967066</v>
+        <v>13.43480020239508</v>
       </c>
       <c r="I20" t="n">
-        <v>49.56746744179212</v>
+        <v>50.57440593705229</v>
       </c>
       <c r="J20" t="n">
-        <v>109.1233211798924</v>
+        <v>111.3401072796808</v>
       </c>
       <c r="K20" t="n">
-        <v>163.5475711458106</v>
+        <v>166.869958866878</v>
       </c>
       <c r="L20" t="n">
-        <v>202.8952238718788</v>
+        <v>207.0169396254816</v>
       </c>
       <c r="M20" t="n">
-        <v>225.7600302817866</v>
+        <v>230.3462332272727</v>
       </c>
       <c r="N20" t="n">
         <v>229.4130635965909</v>
       </c>
       <c r="O20" t="n">
-        <v>216.6282505656767</v>
+        <v>221.0289459393429</v>
       </c>
       <c r="P20" t="n">
-        <v>184.8871999860971</v>
+        <v>188.6430916738354</v>
       </c>
       <c r="Q20" t="n">
-        <v>138.8425873731879</v>
+        <v>141.6631056127321</v>
       </c>
       <c r="R20" t="n">
-        <v>80.763696950664</v>
+        <v>82.40437136225565</v>
       </c>
       <c r="S20" t="n">
-        <v>29.2981950413031</v>
+        <v>29.89337332963048</v>
       </c>
       <c r="T20" t="n">
-        <v>5.628210588844949</v>
+        <v>5.742544893053533</v>
       </c>
       <c r="U20" t="n">
-        <v>0.1028570752958528</v>
+        <v>0.1049465657211382</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,19 +32542,19 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.6879173379014502</v>
+        <v>0.7018920371314099</v>
       </c>
       <c r="H21" t="n">
-        <v>6.643833237100848</v>
+        <v>6.778799411242828</v>
       </c>
       <c r="I21" t="n">
-        <v>23.68487325669467</v>
+        <v>24.16601969948056</v>
       </c>
       <c r="J21" t="n">
-        <v>64.99310252515411</v>
+        <v>66.31340513968291</v>
       </c>
       <c r="K21" t="n">
-        <v>111.0835641645513</v>
+        <v>113.3401716274874</v>
       </c>
       <c r="L21" t="n">
         <v>138.5543797798742</v>
@@ -32567,22 +32569,22 @@
         <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
-        <v>131.3620397261111</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>87.8120447468588</v>
+        <v>89.59590284505508</v>
       </c>
       <c r="R21" t="n">
-        <v>42.71121857602163</v>
+        <v>43.57887577908878</v>
       </c>
       <c r="S21" t="n">
-        <v>12.77776283338877</v>
+        <v>13.03733674233122</v>
       </c>
       <c r="T21" t="n">
-        <v>2.772789620751896</v>
+        <v>2.829117465455112</v>
       </c>
       <c r="U21" t="n">
-        <v>0.04525771959877963</v>
+        <v>0.04617710770601383</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.5767267874554866</v>
+        <v>0.5884427058493126</v>
       </c>
       <c r="H22" t="n">
-        <v>5.127625437558784</v>
+        <v>5.231790602914801</v>
       </c>
       <c r="I22" t="n">
-        <v>17.343747390025</v>
+        <v>17.69607700863206</v>
       </c>
       <c r="J22" t="n">
-        <v>40.7745838731029</v>
+        <v>41.60289930354639</v>
       </c>
       <c r="K22" t="n">
-        <v>67.00516676073742</v>
+        <v>68.36634346140194</v>
       </c>
       <c r="L22" t="n">
-        <v>85.74354438224572</v>
+        <v>87.48538192236053</v>
       </c>
       <c r="M22" t="n">
-        <v>90.40454541904504</v>
+        <v>92.24106888145177</v>
       </c>
       <c r="N22" t="n">
-        <v>88.25492739307465</v>
+        <v>90.04778243237713</v>
       </c>
       <c r="O22" t="n">
-        <v>81.51770992143553</v>
+        <v>83.17370173222832</v>
       </c>
       <c r="P22" t="n">
-        <v>69.75248345734354</v>
+        <v>71.16947053290228</v>
       </c>
       <c r="Q22" t="n">
-        <v>48.29300399320443</v>
+        <v>49.2740523961638</v>
       </c>
       <c r="R22" t="n">
-        <v>25.93173355231669</v>
+        <v>26.45852384664272</v>
       </c>
       <c r="S22" t="n">
-        <v>10.05077501411061</v>
+        <v>10.25495151921029</v>
       </c>
       <c r="T22" t="n">
-        <v>2.464196273673442</v>
+        <v>2.514255197719789</v>
       </c>
       <c r="U22" t="n">
-        <v>0.03145782477029931</v>
+        <v>0.032096874864508</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>1.28571344119816</v>
+        <v>1.311832071514227</v>
       </c>
       <c r="H23" t="n">
-        <v>13.16731277967066</v>
+        <v>13.43480020239508</v>
       </c>
       <c r="I23" t="n">
-        <v>49.56746744179212</v>
+        <v>50.57440593705229</v>
       </c>
       <c r="J23" t="n">
-        <v>109.1233211798924</v>
+        <v>111.3401072796808</v>
       </c>
       <c r="K23" t="n">
-        <v>163.5475711458106</v>
+        <v>166.869958866878</v>
       </c>
       <c r="L23" t="n">
-        <v>202.8952238718788</v>
+        <v>207.0169396254816</v>
       </c>
       <c r="M23" t="n">
-        <v>225.7600302817866</v>
+        <v>230.3462332272727</v>
       </c>
       <c r="N23" t="n">
         <v>229.4130635965909</v>
       </c>
       <c r="O23" t="n">
-        <v>216.6282505656767</v>
+        <v>221.0289459393429</v>
       </c>
       <c r="P23" t="n">
-        <v>184.8871999860971</v>
+        <v>188.6430916738354</v>
       </c>
       <c r="Q23" t="n">
-        <v>138.8425873731879</v>
+        <v>141.6631056127321</v>
       </c>
       <c r="R23" t="n">
-        <v>80.763696950664</v>
+        <v>82.40437136225565</v>
       </c>
       <c r="S23" t="n">
-        <v>29.2981950413031</v>
+        <v>29.89337332963048</v>
       </c>
       <c r="T23" t="n">
-        <v>5.628210588844949</v>
+        <v>5.742544893053533</v>
       </c>
       <c r="U23" t="n">
-        <v>0.1028570752958528</v>
+        <v>0.1049465657211382</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,19 +32779,19 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.6879173379014502</v>
+        <v>0.7018920371314099</v>
       </c>
       <c r="H24" t="n">
-        <v>6.643833237100848</v>
+        <v>6.778799411242828</v>
       </c>
       <c r="I24" t="n">
-        <v>23.68487325669467</v>
+        <v>24.16601969948056</v>
       </c>
       <c r="J24" t="n">
-        <v>64.99310252515411</v>
+        <v>66.31340513968291</v>
       </c>
       <c r="K24" t="n">
-        <v>111.0835641645513</v>
+        <v>113.3401716274874</v>
       </c>
       <c r="L24" t="n">
         <v>138.5543797798742</v>
@@ -32804,22 +32806,22 @@
         <v>142.5962444444444</v>
       </c>
       <c r="P24" t="n">
-        <v>131.3620397261111</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>87.8120447468588</v>
+        <v>89.59590284505508</v>
       </c>
       <c r="R24" t="n">
-        <v>42.71121857602163</v>
+        <v>43.57887577908878</v>
       </c>
       <c r="S24" t="n">
-        <v>12.77776283338877</v>
+        <v>13.03733674233122</v>
       </c>
       <c r="T24" t="n">
-        <v>2.772789620751896</v>
+        <v>2.829117465455112</v>
       </c>
       <c r="U24" t="n">
-        <v>0.04525771959877963</v>
+        <v>0.04617710770601383</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.5767267874554866</v>
+        <v>0.5884427058493126</v>
       </c>
       <c r="H25" t="n">
-        <v>5.127625437558784</v>
+        <v>5.231790602914801</v>
       </c>
       <c r="I25" t="n">
-        <v>17.343747390025</v>
+        <v>17.69607700863206</v>
       </c>
       <c r="J25" t="n">
-        <v>40.7745838731029</v>
+        <v>41.60289930354639</v>
       </c>
       <c r="K25" t="n">
-        <v>67.00516676073742</v>
+        <v>68.36634346140194</v>
       </c>
       <c r="L25" t="n">
-        <v>85.74354438224572</v>
+        <v>87.48538192236053</v>
       </c>
       <c r="M25" t="n">
-        <v>90.40454541904504</v>
+        <v>92.24106888145177</v>
       </c>
       <c r="N25" t="n">
-        <v>88.25492739307465</v>
+        <v>90.04778243237713</v>
       </c>
       <c r="O25" t="n">
-        <v>81.51770992143553</v>
+        <v>83.17370173222832</v>
       </c>
       <c r="P25" t="n">
-        <v>69.75248345734354</v>
+        <v>71.16947053290228</v>
       </c>
       <c r="Q25" t="n">
-        <v>48.29300399320443</v>
+        <v>49.2740523961638</v>
       </c>
       <c r="R25" t="n">
-        <v>25.93173355231669</v>
+        <v>26.45852384664272</v>
       </c>
       <c r="S25" t="n">
-        <v>10.05077501411061</v>
+        <v>10.25495151921029</v>
       </c>
       <c r="T25" t="n">
-        <v>2.464196273673442</v>
+        <v>2.514255197719789</v>
       </c>
       <c r="U25" t="n">
-        <v>0.03145782477029931</v>
+        <v>0.032096874864508</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,49 +32937,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>1.28571344119816</v>
+        <v>1.311832071514227</v>
       </c>
       <c r="H26" t="n">
-        <v>13.16731277967066</v>
+        <v>13.43480020239508</v>
       </c>
       <c r="I26" t="n">
-        <v>49.56746744179212</v>
+        <v>50.57440593705229</v>
       </c>
       <c r="J26" t="n">
-        <v>109.1233211798924</v>
+        <v>111.3401072796808</v>
       </c>
       <c r="K26" t="n">
-        <v>163.5475711458106</v>
+        <v>166.869958866878</v>
       </c>
       <c r="L26" t="n">
-        <v>202.8952238718788</v>
+        <v>207.0169396254816</v>
       </c>
       <c r="M26" t="n">
-        <v>225.7600302817866</v>
+        <v>230.3462332272727</v>
       </c>
       <c r="N26" t="n">
         <v>229.4130635965909</v>
       </c>
       <c r="O26" t="n">
-        <v>216.6282505656767</v>
+        <v>221.0289459393429</v>
       </c>
       <c r="P26" t="n">
-        <v>184.8871999860971</v>
+        <v>188.6430916738354</v>
       </c>
       <c r="Q26" t="n">
-        <v>138.8425873731879</v>
+        <v>141.6631056127321</v>
       </c>
       <c r="R26" t="n">
-        <v>80.763696950664</v>
+        <v>82.40437136225565</v>
       </c>
       <c r="S26" t="n">
-        <v>29.2981950413031</v>
+        <v>29.89337332963048</v>
       </c>
       <c r="T26" t="n">
-        <v>5.628210588844949</v>
+        <v>5.742544893053533</v>
       </c>
       <c r="U26" t="n">
-        <v>0.1028570752958528</v>
+        <v>0.1049465657211382</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,19 +33016,19 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.6879173379014502</v>
+        <v>0.7018920371314099</v>
       </c>
       <c r="H27" t="n">
-        <v>6.643833237100848</v>
+        <v>6.778799411242828</v>
       </c>
       <c r="I27" t="n">
-        <v>23.68487325669467</v>
+        <v>24.16601969948056</v>
       </c>
       <c r="J27" t="n">
-        <v>64.99310252515411</v>
+        <v>66.31340513968291</v>
       </c>
       <c r="K27" t="n">
-        <v>111.0835641645513</v>
+        <v>113.3401716274874</v>
       </c>
       <c r="L27" t="n">
         <v>138.5543797798742</v>
@@ -33041,22 +33043,22 @@
         <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
-        <v>131.3620397261111</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>87.8120447468588</v>
+        <v>89.59590284505508</v>
       </c>
       <c r="R27" t="n">
-        <v>42.71121857602163</v>
+        <v>43.57887577908878</v>
       </c>
       <c r="S27" t="n">
-        <v>12.77776283338877</v>
+        <v>13.03733674233122</v>
       </c>
       <c r="T27" t="n">
-        <v>2.772789620751896</v>
+        <v>2.829117465455112</v>
       </c>
       <c r="U27" t="n">
-        <v>0.04525771959877963</v>
+        <v>0.04617710770601383</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33093,49 +33095,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.5767267874554866</v>
+        <v>0.5884427058493126</v>
       </c>
       <c r="H28" t="n">
-        <v>5.127625437558784</v>
+        <v>5.231790602914801</v>
       </c>
       <c r="I28" t="n">
-        <v>17.343747390025</v>
+        <v>17.69607700863206</v>
       </c>
       <c r="J28" t="n">
-        <v>40.7745838731029</v>
+        <v>41.60289930354639</v>
       </c>
       <c r="K28" t="n">
-        <v>67.00516676073742</v>
+        <v>68.36634346140194</v>
       </c>
       <c r="L28" t="n">
-        <v>85.74354438224572</v>
+        <v>87.48538192236053</v>
       </c>
       <c r="M28" t="n">
-        <v>90.40454541904504</v>
+        <v>92.24106888145177</v>
       </c>
       <c r="N28" t="n">
-        <v>88.25492739307465</v>
+        <v>90.04778243237713</v>
       </c>
       <c r="O28" t="n">
-        <v>81.51770992143553</v>
+        <v>83.17370173222832</v>
       </c>
       <c r="P28" t="n">
-        <v>69.75248345734354</v>
+        <v>71.16947053290228</v>
       </c>
       <c r="Q28" t="n">
-        <v>48.29300399320443</v>
+        <v>49.2740523961638</v>
       </c>
       <c r="R28" t="n">
-        <v>25.93173355231669</v>
+        <v>26.45852384664272</v>
       </c>
       <c r="S28" t="n">
-        <v>10.05077501411061</v>
+        <v>10.25495151921029</v>
       </c>
       <c r="T28" t="n">
-        <v>2.464196273673442</v>
+        <v>2.514255197719789</v>
       </c>
       <c r="U28" t="n">
-        <v>0.03145782477029931</v>
+        <v>0.032096874864508</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,49 +33174,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>1.28571344119816</v>
+        <v>1.311832071514227</v>
       </c>
       <c r="H29" t="n">
-        <v>13.16731277967066</v>
+        <v>13.43480020239508</v>
       </c>
       <c r="I29" t="n">
-        <v>49.56746744179212</v>
+        <v>50.57440593705229</v>
       </c>
       <c r="J29" t="n">
-        <v>109.1233211798924</v>
+        <v>111.3401072796808</v>
       </c>
       <c r="K29" t="n">
-        <v>163.5475711458106</v>
+        <v>166.869958866878</v>
       </c>
       <c r="L29" t="n">
-        <v>202.8952238718788</v>
+        <v>207.0169396254816</v>
       </c>
       <c r="M29" t="n">
-        <v>225.7600302817866</v>
+        <v>230.3462332272727</v>
       </c>
       <c r="N29" t="n">
         <v>229.4130635965909</v>
       </c>
       <c r="O29" t="n">
-        <v>216.6282505656767</v>
+        <v>221.0289459393429</v>
       </c>
       <c r="P29" t="n">
-        <v>184.8871999860971</v>
+        <v>188.6430916738354</v>
       </c>
       <c r="Q29" t="n">
-        <v>138.8425873731879</v>
+        <v>141.6631056127321</v>
       </c>
       <c r="R29" t="n">
-        <v>80.763696950664</v>
+        <v>82.40437136225565</v>
       </c>
       <c r="S29" t="n">
-        <v>29.2981950413031</v>
+        <v>29.89337332963048</v>
       </c>
       <c r="T29" t="n">
-        <v>5.628210588844949</v>
+        <v>5.742544893053533</v>
       </c>
       <c r="U29" t="n">
-        <v>0.1028570752958528</v>
+        <v>0.1049465657211382</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,19 +33253,19 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.6879173379014502</v>
+        <v>0.7018920371314099</v>
       </c>
       <c r="H30" t="n">
-        <v>6.643833237100848</v>
+        <v>6.778799411242828</v>
       </c>
       <c r="I30" t="n">
-        <v>23.68487325669467</v>
+        <v>24.16601969948056</v>
       </c>
       <c r="J30" t="n">
-        <v>64.99310252515411</v>
+        <v>66.31340513968291</v>
       </c>
       <c r="K30" t="n">
-        <v>111.0835641645513</v>
+        <v>113.3401716274874</v>
       </c>
       <c r="L30" t="n">
         <v>138.5543797798742</v>
@@ -33278,22 +33280,22 @@
         <v>142.5962444444444</v>
       </c>
       <c r="P30" t="n">
-        <v>131.3620397261111</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>87.8120447468588</v>
+        <v>89.59590284505508</v>
       </c>
       <c r="R30" t="n">
-        <v>42.71121857602163</v>
+        <v>43.57887577908878</v>
       </c>
       <c r="S30" t="n">
-        <v>12.77776283338877</v>
+        <v>13.03733674233122</v>
       </c>
       <c r="T30" t="n">
-        <v>2.772789620751896</v>
+        <v>2.829117465455112</v>
       </c>
       <c r="U30" t="n">
-        <v>0.04525771959877963</v>
+        <v>0.04617710770601383</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33330,49 +33332,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.5767267874554866</v>
+        <v>0.5884427058493126</v>
       </c>
       <c r="H31" t="n">
-        <v>5.127625437558784</v>
+        <v>5.231790602914801</v>
       </c>
       <c r="I31" t="n">
-        <v>17.343747390025</v>
+        <v>17.69607700863206</v>
       </c>
       <c r="J31" t="n">
-        <v>40.7745838731029</v>
+        <v>41.60289930354639</v>
       </c>
       <c r="K31" t="n">
-        <v>67.00516676073742</v>
+        <v>68.36634346140194</v>
       </c>
       <c r="L31" t="n">
-        <v>85.74354438224572</v>
+        <v>87.48538192236053</v>
       </c>
       <c r="M31" t="n">
-        <v>90.40454541904504</v>
+        <v>92.24106888145177</v>
       </c>
       <c r="N31" t="n">
-        <v>88.25492739307465</v>
+        <v>90.04778243237713</v>
       </c>
       <c r="O31" t="n">
-        <v>81.51770992143553</v>
+        <v>83.17370173222832</v>
       </c>
       <c r="P31" t="n">
-        <v>69.75248345734354</v>
+        <v>71.16947053290228</v>
       </c>
       <c r="Q31" t="n">
-        <v>48.29300399320443</v>
+        <v>49.2740523961638</v>
       </c>
       <c r="R31" t="n">
-        <v>25.93173355231669</v>
+        <v>26.45852384664272</v>
       </c>
       <c r="S31" t="n">
-        <v>10.05077501411061</v>
+        <v>10.25495151921029</v>
       </c>
       <c r="T31" t="n">
-        <v>2.464196273673442</v>
+        <v>2.514255197719789</v>
       </c>
       <c r="U31" t="n">
-        <v>0.03145782477029931</v>
+        <v>0.032096874864508</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,49 +33411,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>1.28571344119816</v>
+        <v>1.311832071514227</v>
       </c>
       <c r="H32" t="n">
-        <v>13.16731277967066</v>
+        <v>13.43480020239508</v>
       </c>
       <c r="I32" t="n">
-        <v>49.56746744179212</v>
+        <v>50.57440593705229</v>
       </c>
       <c r="J32" t="n">
-        <v>109.1233211798924</v>
+        <v>111.3401072796808</v>
       </c>
       <c r="K32" t="n">
-        <v>163.5475711458106</v>
+        <v>166.869958866878</v>
       </c>
       <c r="L32" t="n">
-        <v>202.8952238718788</v>
+        <v>207.0169396254816</v>
       </c>
       <c r="M32" t="n">
-        <v>225.7600302817866</v>
+        <v>230.3462332272727</v>
       </c>
       <c r="N32" t="n">
         <v>229.4130635965909</v>
       </c>
       <c r="O32" t="n">
-        <v>216.6282505656767</v>
+        <v>221.0289459393429</v>
       </c>
       <c r="P32" t="n">
-        <v>184.8871999860971</v>
+        <v>188.6430916738354</v>
       </c>
       <c r="Q32" t="n">
-        <v>138.8425873731879</v>
+        <v>141.6631056127321</v>
       </c>
       <c r="R32" t="n">
-        <v>80.763696950664</v>
+        <v>82.40437136225565</v>
       </c>
       <c r="S32" t="n">
-        <v>29.2981950413031</v>
+        <v>29.89337332963048</v>
       </c>
       <c r="T32" t="n">
-        <v>5.628210588844949</v>
+        <v>5.742544893053533</v>
       </c>
       <c r="U32" t="n">
-        <v>0.1028570752958528</v>
+        <v>0.1049465657211382</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,19 +33490,19 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.6879173379014502</v>
+        <v>0.7018920371314099</v>
       </c>
       <c r="H33" t="n">
-        <v>6.643833237100848</v>
+        <v>6.778799411242828</v>
       </c>
       <c r="I33" t="n">
-        <v>23.68487325669467</v>
+        <v>24.16601969948056</v>
       </c>
       <c r="J33" t="n">
-        <v>64.99310252515411</v>
+        <v>66.31340513968291</v>
       </c>
       <c r="K33" t="n">
-        <v>111.0835641645513</v>
+        <v>113.3401716274874</v>
       </c>
       <c r="L33" t="n">
         <v>138.5543797798742</v>
@@ -33515,22 +33517,22 @@
         <v>142.5962444444444</v>
       </c>
       <c r="P33" t="n">
-        <v>131.3620397261111</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>87.8120447468588</v>
+        <v>89.59590284505508</v>
       </c>
       <c r="R33" t="n">
-        <v>42.71121857602163</v>
+        <v>43.57887577908878</v>
       </c>
       <c r="S33" t="n">
-        <v>12.77776283338877</v>
+        <v>13.03733674233122</v>
       </c>
       <c r="T33" t="n">
-        <v>2.772789620751896</v>
+        <v>2.829117465455112</v>
       </c>
       <c r="U33" t="n">
-        <v>0.04525771959877963</v>
+        <v>0.04617710770601383</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33567,49 +33569,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.5767267874554866</v>
+        <v>0.5884427058493126</v>
       </c>
       <c r="H34" t="n">
-        <v>5.127625437558784</v>
+        <v>5.231790602914801</v>
       </c>
       <c r="I34" t="n">
-        <v>17.343747390025</v>
+        <v>17.69607700863206</v>
       </c>
       <c r="J34" t="n">
-        <v>40.7745838731029</v>
+        <v>41.60289930354639</v>
       </c>
       <c r="K34" t="n">
-        <v>67.00516676073742</v>
+        <v>68.36634346140194</v>
       </c>
       <c r="L34" t="n">
-        <v>85.74354438224572</v>
+        <v>87.48538192236053</v>
       </c>
       <c r="M34" t="n">
-        <v>90.40454541904504</v>
+        <v>92.24106888145177</v>
       </c>
       <c r="N34" t="n">
-        <v>88.25492739307465</v>
+        <v>90.04778243237713</v>
       </c>
       <c r="O34" t="n">
-        <v>81.51770992143553</v>
+        <v>83.17370173222832</v>
       </c>
       <c r="P34" t="n">
-        <v>69.75248345734354</v>
+        <v>71.16947053290228</v>
       </c>
       <c r="Q34" t="n">
-        <v>48.29300399320443</v>
+        <v>49.2740523961638</v>
       </c>
       <c r="R34" t="n">
-        <v>25.93173355231669</v>
+        <v>26.45852384664272</v>
       </c>
       <c r="S34" t="n">
-        <v>10.05077501411061</v>
+        <v>10.25495151921029</v>
       </c>
       <c r="T34" t="n">
-        <v>2.464196273673442</v>
+        <v>2.514255197719789</v>
       </c>
       <c r="U34" t="n">
-        <v>0.03145782477029931</v>
+        <v>0.032096874864508</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,49 +33648,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>1.28571344119816</v>
+        <v>1.311832071514227</v>
       </c>
       <c r="H35" t="n">
-        <v>13.16731277967066</v>
+        <v>13.43480020239508</v>
       </c>
       <c r="I35" t="n">
-        <v>49.56746744179212</v>
+        <v>50.57440593705229</v>
       </c>
       <c r="J35" t="n">
-        <v>109.1233211798924</v>
+        <v>111.3401072796808</v>
       </c>
       <c r="K35" t="n">
-        <v>163.5475711458106</v>
+        <v>166.869958866878</v>
       </c>
       <c r="L35" t="n">
-        <v>202.8952238718788</v>
+        <v>207.0169396254816</v>
       </c>
       <c r="M35" t="n">
-        <v>225.7600302817866</v>
+        <v>230.3462332272727</v>
       </c>
       <c r="N35" t="n">
         <v>229.4130635965909</v>
       </c>
       <c r="O35" t="n">
-        <v>216.6282505656767</v>
+        <v>221.0289459393429</v>
       </c>
       <c r="P35" t="n">
-        <v>184.8871999860971</v>
+        <v>188.6430916738354</v>
       </c>
       <c r="Q35" t="n">
-        <v>138.8425873731879</v>
+        <v>141.6631056127321</v>
       </c>
       <c r="R35" t="n">
-        <v>80.763696950664</v>
+        <v>82.40437136225565</v>
       </c>
       <c r="S35" t="n">
-        <v>29.2981950413031</v>
+        <v>29.89337332963048</v>
       </c>
       <c r="T35" t="n">
-        <v>5.628210588844949</v>
+        <v>5.742544893053533</v>
       </c>
       <c r="U35" t="n">
-        <v>0.1028570752958528</v>
+        <v>0.1049465657211382</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33725,19 +33727,19 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.6879173379014502</v>
+        <v>0.7018920371314099</v>
       </c>
       <c r="H36" t="n">
-        <v>6.643833237100848</v>
+        <v>6.778799411242828</v>
       </c>
       <c r="I36" t="n">
-        <v>23.68487325669467</v>
+        <v>24.16601969948056</v>
       </c>
       <c r="J36" t="n">
-        <v>64.99310252515411</v>
+        <v>66.31340513968291</v>
       </c>
       <c r="K36" t="n">
-        <v>111.0835641645513</v>
+        <v>113.3401716274874</v>
       </c>
       <c r="L36" t="n">
         <v>138.5543797798742</v>
@@ -33752,22 +33754,22 @@
         <v>142.5962444444444</v>
       </c>
       <c r="P36" t="n">
-        <v>131.3620397261111</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>87.8120447468588</v>
+        <v>89.59590284505508</v>
       </c>
       <c r="R36" t="n">
-        <v>42.71121857602163</v>
+        <v>43.57887577908878</v>
       </c>
       <c r="S36" t="n">
-        <v>12.77776283338877</v>
+        <v>13.03733674233122</v>
       </c>
       <c r="T36" t="n">
-        <v>2.772789620751896</v>
+        <v>2.829117465455112</v>
       </c>
       <c r="U36" t="n">
-        <v>0.04525771959877963</v>
+        <v>0.04617710770601383</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33804,49 +33806,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.5767267874554866</v>
+        <v>0.5884427058493126</v>
       </c>
       <c r="H37" t="n">
-        <v>5.127625437558784</v>
+        <v>5.231790602914801</v>
       </c>
       <c r="I37" t="n">
-        <v>17.343747390025</v>
+        <v>17.69607700863206</v>
       </c>
       <c r="J37" t="n">
-        <v>40.7745838731029</v>
+        <v>41.60289930354639</v>
       </c>
       <c r="K37" t="n">
-        <v>67.00516676073742</v>
+        <v>68.36634346140194</v>
       </c>
       <c r="L37" t="n">
-        <v>85.74354438224572</v>
+        <v>87.48538192236053</v>
       </c>
       <c r="M37" t="n">
-        <v>90.40454541904504</v>
+        <v>92.24106888145177</v>
       </c>
       <c r="N37" t="n">
-        <v>88.25492739307465</v>
+        <v>90.04778243237713</v>
       </c>
       <c r="O37" t="n">
-        <v>81.51770992143553</v>
+        <v>83.17370173222832</v>
       </c>
       <c r="P37" t="n">
-        <v>69.75248345734354</v>
+        <v>71.16947053290228</v>
       </c>
       <c r="Q37" t="n">
-        <v>48.29300399320443</v>
+        <v>49.2740523961638</v>
       </c>
       <c r="R37" t="n">
-        <v>25.93173355231669</v>
+        <v>26.45852384664272</v>
       </c>
       <c r="S37" t="n">
-        <v>10.05077501411061</v>
+        <v>10.25495151921029</v>
       </c>
       <c r="T37" t="n">
-        <v>2.464196273673442</v>
+        <v>2.514255197719789</v>
       </c>
       <c r="U37" t="n">
-        <v>0.03145782477029931</v>
+        <v>0.032096874864508</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>1.28571344119816</v>
+        <v>1.311832071514227</v>
       </c>
       <c r="H38" t="n">
-        <v>13.16731277967066</v>
+        <v>13.43480020239508</v>
       </c>
       <c r="I38" t="n">
-        <v>49.56746744179212</v>
+        <v>50.57440593705229</v>
       </c>
       <c r="J38" t="n">
-        <v>109.1233211798924</v>
+        <v>111.3401072796808</v>
       </c>
       <c r="K38" t="n">
-        <v>163.5475711458106</v>
+        <v>166.869958866878</v>
       </c>
       <c r="L38" t="n">
-        <v>202.8952238718788</v>
+        <v>207.0169396254816</v>
       </c>
       <c r="M38" t="n">
-        <v>225.7600302817866</v>
+        <v>230.3462332272727</v>
       </c>
       <c r="N38" t="n">
         <v>229.4130635965909</v>
       </c>
       <c r="O38" t="n">
-        <v>216.6282505656767</v>
+        <v>221.0289459393429</v>
       </c>
       <c r="P38" t="n">
-        <v>184.8871999860971</v>
+        <v>188.6430916738354</v>
       </c>
       <c r="Q38" t="n">
-        <v>138.8425873731879</v>
+        <v>141.6631056127321</v>
       </c>
       <c r="R38" t="n">
-        <v>80.763696950664</v>
+        <v>82.40437136225565</v>
       </c>
       <c r="S38" t="n">
-        <v>29.2981950413031</v>
+        <v>29.89337332963048</v>
       </c>
       <c r="T38" t="n">
-        <v>5.628210588844949</v>
+        <v>5.742544893053533</v>
       </c>
       <c r="U38" t="n">
-        <v>0.1028570752958528</v>
+        <v>0.1049465657211382</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,19 +33964,19 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.6879173379014502</v>
+        <v>0.7018920371314099</v>
       </c>
       <c r="H39" t="n">
-        <v>6.643833237100848</v>
+        <v>6.778799411242828</v>
       </c>
       <c r="I39" t="n">
-        <v>23.68487325669467</v>
+        <v>24.16601969948056</v>
       </c>
       <c r="J39" t="n">
-        <v>64.99310252515411</v>
+        <v>66.31340513968291</v>
       </c>
       <c r="K39" t="n">
-        <v>111.0835641645513</v>
+        <v>113.3401716274874</v>
       </c>
       <c r="L39" t="n">
         <v>138.5543797798742</v>
@@ -33989,22 +33991,22 @@
         <v>142.5962444444444</v>
       </c>
       <c r="P39" t="n">
-        <v>131.3620397261111</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>87.8120447468588</v>
+        <v>89.59590284505508</v>
       </c>
       <c r="R39" t="n">
-        <v>42.71121857602163</v>
+        <v>43.57887577908878</v>
       </c>
       <c r="S39" t="n">
-        <v>12.77776283338877</v>
+        <v>13.03733674233122</v>
       </c>
       <c r="T39" t="n">
-        <v>2.772789620751896</v>
+        <v>2.829117465455112</v>
       </c>
       <c r="U39" t="n">
-        <v>0.04525771959877963</v>
+        <v>0.04617710770601383</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34041,49 +34043,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.5767267874554866</v>
+        <v>0.5884427058493126</v>
       </c>
       <c r="H40" t="n">
-        <v>5.127625437558784</v>
+        <v>5.231790602914801</v>
       </c>
       <c r="I40" t="n">
-        <v>17.343747390025</v>
+        <v>17.69607700863206</v>
       </c>
       <c r="J40" t="n">
-        <v>40.7745838731029</v>
+        <v>41.60289930354639</v>
       </c>
       <c r="K40" t="n">
-        <v>67.00516676073742</v>
+        <v>68.36634346140194</v>
       </c>
       <c r="L40" t="n">
-        <v>85.74354438224572</v>
+        <v>87.48538192236053</v>
       </c>
       <c r="M40" t="n">
-        <v>90.40454541904504</v>
+        <v>92.24106888145177</v>
       </c>
       <c r="N40" t="n">
-        <v>88.25492739307465</v>
+        <v>90.04778243237713</v>
       </c>
       <c r="O40" t="n">
-        <v>81.51770992143553</v>
+        <v>83.17370173222832</v>
       </c>
       <c r="P40" t="n">
-        <v>69.75248345734354</v>
+        <v>71.16947053290228</v>
       </c>
       <c r="Q40" t="n">
-        <v>48.29300399320443</v>
+        <v>49.2740523961638</v>
       </c>
       <c r="R40" t="n">
-        <v>25.93173355231669</v>
+        <v>26.45852384664272</v>
       </c>
       <c r="S40" t="n">
-        <v>10.05077501411061</v>
+        <v>10.25495151921029</v>
       </c>
       <c r="T40" t="n">
-        <v>2.464196273673442</v>
+        <v>2.514255197719789</v>
       </c>
       <c r="U40" t="n">
-        <v>0.03145782477029931</v>
+        <v>0.032096874864508</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>1.28571344119816</v>
+        <v>1.311832071514227</v>
       </c>
       <c r="H41" t="n">
-        <v>13.16731277967066</v>
+        <v>13.43480020239508</v>
       </c>
       <c r="I41" t="n">
-        <v>49.56746744179212</v>
+        <v>50.57440593705229</v>
       </c>
       <c r="J41" t="n">
-        <v>109.1233211798924</v>
+        <v>111.3401072796808</v>
       </c>
       <c r="K41" t="n">
-        <v>163.5475711458106</v>
+        <v>166.869958866878</v>
       </c>
       <c r="L41" t="n">
-        <v>202.8952238718788</v>
+        <v>207.0169396254816</v>
       </c>
       <c r="M41" t="n">
-        <v>225.7600302817866</v>
+        <v>230.3462332272727</v>
       </c>
       <c r="N41" t="n">
         <v>229.4130635965909</v>
       </c>
       <c r="O41" t="n">
-        <v>216.6282505656767</v>
+        <v>221.0289459393429</v>
       </c>
       <c r="P41" t="n">
-        <v>184.8871999860971</v>
+        <v>188.6430916738354</v>
       </c>
       <c r="Q41" t="n">
-        <v>138.8425873731879</v>
+        <v>141.6631056127321</v>
       </c>
       <c r="R41" t="n">
-        <v>80.763696950664</v>
+        <v>82.40437136225565</v>
       </c>
       <c r="S41" t="n">
-        <v>29.2981950413031</v>
+        <v>29.89337332963048</v>
       </c>
       <c r="T41" t="n">
-        <v>5.628210588844949</v>
+        <v>5.742544893053533</v>
       </c>
       <c r="U41" t="n">
-        <v>0.1028570752958528</v>
+        <v>0.1049465657211382</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,19 +34201,19 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.6879173379014502</v>
+        <v>0.7018920371314099</v>
       </c>
       <c r="H42" t="n">
-        <v>6.643833237100848</v>
+        <v>6.778799411242828</v>
       </c>
       <c r="I42" t="n">
-        <v>23.68487325669467</v>
+        <v>24.16601969948056</v>
       </c>
       <c r="J42" t="n">
-        <v>64.99310252515411</v>
+        <v>66.31340513968291</v>
       </c>
       <c r="K42" t="n">
-        <v>111.0835641645513</v>
+        <v>113.3401716274874</v>
       </c>
       <c r="L42" t="n">
         <v>138.5543797798742</v>
@@ -34226,22 +34228,22 @@
         <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
-        <v>131.3620397261111</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>87.8120447468588</v>
+        <v>89.59590284505508</v>
       </c>
       <c r="R42" t="n">
-        <v>42.71121857602163</v>
+        <v>43.57887577908878</v>
       </c>
       <c r="S42" t="n">
-        <v>12.77776283338877</v>
+        <v>13.03733674233122</v>
       </c>
       <c r="T42" t="n">
-        <v>2.772789620751896</v>
+        <v>2.829117465455112</v>
       </c>
       <c r="U42" t="n">
-        <v>0.04525771959877963</v>
+        <v>0.04617710770601383</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34278,49 +34280,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.5767267874554866</v>
+        <v>0.5884427058493126</v>
       </c>
       <c r="H43" t="n">
-        <v>5.127625437558784</v>
+        <v>5.231790602914801</v>
       </c>
       <c r="I43" t="n">
-        <v>17.343747390025</v>
+        <v>17.69607700863206</v>
       </c>
       <c r="J43" t="n">
-        <v>40.7745838731029</v>
+        <v>41.60289930354639</v>
       </c>
       <c r="K43" t="n">
-        <v>67.00516676073742</v>
+        <v>68.36634346140194</v>
       </c>
       <c r="L43" t="n">
-        <v>85.74354438224572</v>
+        <v>87.48538192236053</v>
       </c>
       <c r="M43" t="n">
-        <v>90.40454541904504</v>
+        <v>92.24106888145177</v>
       </c>
       <c r="N43" t="n">
-        <v>88.25492739307465</v>
+        <v>90.04778243237713</v>
       </c>
       <c r="O43" t="n">
-        <v>81.51770992143553</v>
+        <v>83.17370173222832</v>
       </c>
       <c r="P43" t="n">
-        <v>69.75248345734354</v>
+        <v>71.16947053290228</v>
       </c>
       <c r="Q43" t="n">
-        <v>48.29300399320443</v>
+        <v>49.2740523961638</v>
       </c>
       <c r="R43" t="n">
-        <v>25.93173355231669</v>
+        <v>26.45852384664272</v>
       </c>
       <c r="S43" t="n">
-        <v>10.05077501411061</v>
+        <v>10.25495151921029</v>
       </c>
       <c r="T43" t="n">
-        <v>2.464196273673442</v>
+        <v>2.514255197719789</v>
       </c>
       <c r="U43" t="n">
-        <v>0.03145782477029931</v>
+        <v>0.032096874864508</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>1.28571344119816</v>
+        <v>1.839563090509207</v>
       </c>
       <c r="H44" t="n">
-        <v>13.16731277967066</v>
+        <v>18.83942550067742</v>
       </c>
       <c r="I44" t="n">
-        <v>49.56746744179212</v>
+        <v>70.91975604685626</v>
       </c>
       <c r="J44" t="n">
-        <v>109.1233211798924</v>
+        <v>156.1306178531059</v>
       </c>
       <c r="K44" t="n">
-        <v>163.5475711458106</v>
+        <v>233.9993234743607</v>
       </c>
       <c r="L44" t="n">
-        <v>202.8952238718788</v>
+        <v>290.2968524055319</v>
       </c>
       <c r="M44" t="n">
-        <v>225.7600302817866</v>
+        <v>323.011182516375</v>
       </c>
       <c r="N44" t="n">
-        <v>229.4130635965909</v>
+        <v>322.0780128856931</v>
       </c>
       <c r="O44" t="n">
-        <v>216.6282505656767</v>
+        <v>309.9456856660333</v>
       </c>
       <c r="P44" t="n">
-        <v>184.8871999860971</v>
+        <v>264.5314718690873</v>
       </c>
       <c r="Q44" t="n">
-        <v>138.8425873731879</v>
+        <v>198.6521186902262</v>
       </c>
       <c r="R44" t="n">
-        <v>80.763696950664</v>
+        <v>115.5544549841991</v>
       </c>
       <c r="S44" t="n">
-        <v>29.2981950413031</v>
+        <v>41.91904392497859</v>
       </c>
       <c r="T44" t="n">
-        <v>5.628210588844949</v>
+        <v>8.052687428704056</v>
       </c>
       <c r="U44" t="n">
-        <v>0.1028570752958528</v>
+        <v>0.1471650472407365</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.6879173379014502</v>
+        <v>0.9842530252663183</v>
       </c>
       <c r="H45" t="n">
-        <v>6.643833237100848</v>
+        <v>9.505812112440497</v>
       </c>
       <c r="I45" t="n">
-        <v>23.68487325669467</v>
+        <v>33.88765898395</v>
       </c>
       <c r="J45" t="n">
-        <v>64.99310252515411</v>
+        <v>92.99032639149897</v>
       </c>
       <c r="K45" t="n">
-        <v>111.0835641645513</v>
+        <v>158.9352790843423</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>213.7080965605662</v>
       </c>
       <c r="M45" t="n">
-        <v>142.1340339220183</v>
+        <v>234.7989832111205</v>
       </c>
       <c r="N45" t="n">
-        <v>131.3417120833333</v>
+        <v>224.0066613724355</v>
       </c>
       <c r="O45" t="n">
-        <v>142.5962444444444</v>
+        <v>173.959796357658</v>
       </c>
       <c r="P45" t="n">
-        <v>131.3620397261111</v>
+        <v>187.9491588335306</v>
       </c>
       <c r="Q45" t="n">
-        <v>87.8120447468588</v>
+        <v>125.6390352953988</v>
       </c>
       <c r="R45" t="n">
-        <v>42.71121857602163</v>
+        <v>61.11002555118424</v>
       </c>
       <c r="S45" t="n">
-        <v>12.77776283338877</v>
+        <v>18.28206825439849</v>
       </c>
       <c r="T45" t="n">
-        <v>2.772789620751896</v>
+        <v>3.967230395700641</v>
       </c>
       <c r="U45" t="n">
-        <v>0.04525771959877963</v>
+        <v>0.06475348850436308</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.5767267874554866</v>
+        <v>0.8251646731812819</v>
       </c>
       <c r="H46" t="n">
-        <v>5.127625437558784</v>
+        <v>7.336464094284494</v>
       </c>
       <c r="I46" t="n">
-        <v>17.343747390025</v>
+        <v>24.81495217166983</v>
       </c>
       <c r="J46" t="n">
-        <v>40.7745838731029</v>
+        <v>58.33914239391663</v>
       </c>
       <c r="K46" t="n">
-        <v>67.00516676073742</v>
+        <v>95.8691320296071</v>
       </c>
       <c r="L46" t="n">
-        <v>85.74354438224572</v>
+        <v>122.6794824109699</v>
       </c>
       <c r="M46" t="n">
-        <v>90.40454541904504</v>
+        <v>129.3483132696804</v>
       </c>
       <c r="N46" t="n">
-        <v>88.25492739307465</v>
+        <v>126.272699487823</v>
       </c>
       <c r="O46" t="n">
-        <v>81.51770992143553</v>
+        <v>116.6332758056598</v>
       </c>
       <c r="P46" t="n">
-        <v>69.75248345734354</v>
+        <v>99.79991647276155</v>
       </c>
       <c r="Q46" t="n">
-        <v>48.29300399320443</v>
+        <v>69.09628913338899</v>
       </c>
       <c r="R46" t="n">
-        <v>25.93173355231669</v>
+        <v>37.102404305042</v>
       </c>
       <c r="S46" t="n">
-        <v>10.05077501411061</v>
+        <v>14.38036980444106</v>
       </c>
       <c r="T46" t="n">
-        <v>2.464196273673442</v>
+        <v>3.52570360359275</v>
       </c>
       <c r="U46" t="n">
-        <v>0.03145782477029931</v>
+        <v>0.04500898217352452</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -38017,22 +38019,22 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>13.90947242938014</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>54.53043743554463</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>92.6649492891022</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>92.6649492891022</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>79.84747424434661</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>33.29847611381774</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
@@ -38096,22 +38098,22 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>21.09384010998329</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>75.15371678069201</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>92.6649492891022</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>92.6649492891022</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>31.36355191321351</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>53.97475141920032</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
@@ -38178,19 +38180,19 @@
         <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>92.6649492891022</v>
       </c>
       <c r="M46" t="n">
         <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>88.92091093398692</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>92.6649492891022</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>92.6649492891022</v>
       </c>
       <c r="Q46" t="n">
         <v>0</v>
